--- a/Documentacion/Formatos/Presupuesto de Proyecto.xlsx
+++ b/Documentacion/Formatos/Presupuesto de Proyecto.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -30,8 +30,11 @@
     <definedName name="Type">'[2]Maintenance Work Order'!#REF!</definedName>
     <definedName name="YesNo">'Dropdown Keys - Do Not Delete -'!$B$5:$B$6</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -39,6 +42,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -50,72 +55,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="47">
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>SUBTOTAL</t>
-  </si>
-  <si>
-    <t>CLICK HERE TO CREATE IN SMARTSHEET</t>
-  </si>
-  <si>
-    <t>PROJECT 1</t>
-  </si>
-  <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t>Not Started</t>
-  </si>
-  <si>
-    <t>In Progress</t>
-  </si>
-  <si>
-    <t>Complete</t>
-  </si>
-  <si>
-    <t>On Hold</t>
-  </si>
-  <si>
-    <t>Overdue</t>
-  </si>
-  <si>
-    <t>Needs Review</t>
-  </si>
-  <si>
-    <t>Approved</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>PRIORITY</t>
-  </si>
-  <si>
-    <t>YES / NO</t>
-  </si>
-  <si>
-    <t>DROPDOWN KEYS</t>
-  </si>
-  <si>
-    <t>PROJECT 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Subtask </t>
-  </si>
   <si>
     <t>Presupuesto de Proyecto</t>
   </si>
@@ -189,6 +128,72 @@
     <t>Diferencia (Menos / Más del Presupuesto)</t>
   </si>
   <si>
+    <t>PROJECT 1</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Subtask </t>
+  </si>
+  <si>
+    <t>Needs Review</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>Overdue</t>
+  </si>
+  <si>
+    <t>On Hold</t>
+  </si>
+  <si>
+    <t>SUBTOTAL</t>
+  </si>
+  <si>
+    <t>PROJECT 2</t>
+  </si>
+  <si>
+    <t>CLICK HERE TO CREATE IN SMARTSHEET</t>
+  </si>
+  <si>
+    <t>DROPDOWN KEYS</t>
+  </si>
+  <si>
+    <t>YES / NO</t>
+  </si>
+  <si>
+    <t>PRIORITY</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
 </sst>
@@ -197,15 +202,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="mm/dd/yy;@"/>
-    <numFmt numFmtId="170" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -693,7 +698,7 @@
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -704,15 +709,15 @@
   </cellStyleXfs>
   <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="7" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -725,7 +730,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -740,18 +745,18 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="7" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
@@ -776,7 +781,7 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -829,51 +834,51 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="7" fontId="12" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="5" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="7" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="5" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="5" fontId="12" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="12" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -883,7 +888,7 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="12" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -892,13 +897,13 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="12" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -916,30 +921,30 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="5" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="5" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="6" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="4" fillId="6" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="7" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="5" fillId="7" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -948,7 +953,6 @@
     <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="8" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -970,14 +974,15 @@
     <xf numFmtId="0" fontId="12" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Hipervínculo" xfId="8" builtinId="8"/>
-    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="7" xr:uid="{096755C3-0BB5-E94E-8E6C-945830891248}"/>
@@ -1608,7 +1613,7 @@
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.125" style="5" customWidth="1"/>
     <col min="2" max="2" width="13.875" style="5" customWidth="1"/>
@@ -1626,10 +1631,10 @@
     <col min="21" max="16384" width="11" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="4"/>
       <c r="B1" s="74" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -1671,36 +1676,36 @@
       <c r="AN1" s="4"/>
       <c r="AO1" s="4"/>
     </row>
-    <row r="2" spans="1:41" s="10" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" s="10" customFormat="1" ht="35.1" customHeight="1">
       <c r="A2" s="9"/>
       <c r="B2" s="42" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C2" s="42"/>
       <c r="D2" s="42"/>
       <c r="E2" s="42"/>
       <c r="F2" s="42"/>
       <c r="G2" s="57"/>
-      <c r="H2" s="80" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="82" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="78"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="77" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" s="78"/>
-      <c r="S2" s="79"/>
+      <c r="H2" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="77"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="77"/>
+      <c r="S2" s="78"/>
       <c r="T2" s="9"/>
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
@@ -1724,61 +1729,61 @@
       <c r="AN2" s="9"/>
       <c r="AO2" s="9"/>
     </row>
-    <row r="3" spans="1:41" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" s="10" customFormat="1" ht="51">
       <c r="A3" s="9"/>
       <c r="B3" s="37" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="G3" s="58" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="H3" s="50" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="N3" s="20" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="O3" s="20" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="P3" s="48" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="Q3" s="55" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="R3" s="54" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="S3" s="52" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="T3" s="9"/>
       <c r="U3" s="9"/>
@@ -1803,10 +1808,10 @@
       <c r="AN3" s="9"/>
       <c r="AO3" s="9"/>
     </row>
-    <row r="4" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A4" s="9"/>
       <c r="B4" s="38" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C4" s="38"/>
       <c r="D4" s="38"/>
@@ -1848,14 +1853,14 @@
       <c r="AN4" s="9"/>
       <c r="AO4" s="9"/>
     </row>
-    <row r="5" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A5" s="9"/>
       <c r="B5" s="39" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C5" s="39"/>
       <c r="D5" s="16" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="E5" s="44"/>
       <c r="F5" s="44"/>
@@ -1923,14 +1928,14 @@
       <c r="AN5" s="9"/>
       <c r="AO5" s="9"/>
     </row>
-    <row r="6" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A6" s="9"/>
       <c r="B6" s="39" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C6" s="39"/>
       <c r="D6" s="17" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E6" s="44"/>
       <c r="F6" s="44"/>
@@ -1998,14 +2003,14 @@
       <c r="AN6" s="9"/>
       <c r="AO6" s="9"/>
     </row>
-    <row r="7" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A7" s="9"/>
       <c r="B7" s="39" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C7" s="39"/>
       <c r="D7" s="17" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E7" s="44"/>
       <c r="F7" s="44"/>
@@ -2065,14 +2070,14 @@
       <c r="AN7" s="9"/>
       <c r="AO7" s="9"/>
     </row>
-    <row r="8" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A8" s="9"/>
       <c r="B8" s="39" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C8" s="39"/>
       <c r="D8" s="18" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E8" s="44"/>
       <c r="F8" s="44"/>
@@ -2134,14 +2139,14 @@
       <c r="AN8" s="9"/>
       <c r="AO8" s="9"/>
     </row>
-    <row r="9" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A9" s="9"/>
       <c r="B9" s="39" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C9" s="39"/>
       <c r="D9" s="17" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E9" s="44"/>
       <c r="F9" s="44"/>
@@ -2201,14 +2206,14 @@
       <c r="AN9" s="9"/>
       <c r="AO9" s="9"/>
     </row>
-    <row r="10" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A10" s="9"/>
       <c r="B10" s="39" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C10" s="39"/>
       <c r="D10" s="39" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E10" s="44"/>
       <c r="F10" s="44"/>
@@ -2260,14 +2265,14 @@
       <c r="AN10" s="9"/>
       <c r="AO10" s="9"/>
     </row>
-    <row r="11" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A11" s="9"/>
       <c r="B11" s="39" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C11" s="39"/>
       <c r="D11" s="39" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E11" s="44"/>
       <c r="F11" s="44"/>
@@ -2319,10 +2324,10 @@
       <c r="AN11" s="9"/>
       <c r="AO11" s="9"/>
     </row>
-    <row r="12" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A12" s="9"/>
       <c r="B12" s="39" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C12" s="39"/>
       <c r="D12" s="39"/>
@@ -2376,10 +2381,10 @@
       <c r="AN12" s="9"/>
       <c r="AO12" s="9"/>
     </row>
-    <row r="13" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A13" s="9"/>
       <c r="B13" s="39" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
@@ -2433,10 +2438,10 @@
       <c r="AN13" s="9"/>
       <c r="AO13" s="9"/>
     </row>
-    <row r="14" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A14" s="9"/>
       <c r="B14" s="22" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="40"/>
@@ -2502,7 +2507,7 @@
       <c r="AN14" s="9"/>
       <c r="AO14" s="9"/>
     </row>
-    <row r="15" spans="1:41" s="10" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:41" s="10" customFormat="1" ht="11.1" customHeight="1" thickBot="1">
       <c r="A15" s="9"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -2545,36 +2550,36 @@
       <c r="AN15" s="9"/>
       <c r="AO15" s="9"/>
     </row>
-    <row r="16" spans="1:41" s="10" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" s="10" customFormat="1" ht="35.1" customHeight="1">
       <c r="A16" s="9"/>
       <c r="B16" s="42" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C16" s="42"/>
       <c r="D16" s="42"/>
       <c r="E16" s="42"/>
       <c r="F16" s="42"/>
       <c r="G16" s="57"/>
-      <c r="H16" s="80" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="81" t="s">
-        <v>25</v>
-      </c>
-      <c r="L16" s="81"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="82" t="s">
-        <v>26</v>
-      </c>
-      <c r="O16" s="78"/>
-      <c r="P16" s="83"/>
-      <c r="Q16" s="77" t="s">
-        <v>27</v>
-      </c>
-      <c r="R16" s="78"/>
-      <c r="S16" s="79"/>
+      <c r="H16" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="L16" s="80"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="O16" s="77"/>
+      <c r="P16" s="82"/>
+      <c r="Q16" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="R16" s="77"/>
+      <c r="S16" s="78"/>
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
       <c r="V16" s="9"/>
@@ -2598,61 +2603,61 @@
       <c r="AN16" s="9"/>
       <c r="AO16" s="9"/>
     </row>
-    <row r="17" spans="1:41" s="10" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" s="10" customFormat="1" ht="35.1" customHeight="1">
       <c r="A17" s="9"/>
       <c r="B17" s="37" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="G17" s="58" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="H17" s="50" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I17" s="21" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="J17" s="21" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="K17" s="20" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="L17" s="20" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="M17" s="20" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="N17" s="20" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="O17" s="20" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="P17" s="48" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="Q17" s="55" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="R17" s="54" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="S17" s="52" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
@@ -2677,10 +2682,10 @@
       <c r="AN17" s="9"/>
       <c r="AO17" s="9"/>
     </row>
-    <row r="18" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A18" s="9"/>
       <c r="B18" s="38" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C18" s="38"/>
       <c r="D18" s="38"/>
@@ -2722,14 +2727,14 @@
       <c r="AN18" s="9"/>
       <c r="AO18" s="9"/>
     </row>
-    <row r="19" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A19" s="9"/>
       <c r="B19" s="39" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C19" s="39"/>
       <c r="D19" s="16" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="E19" s="44"/>
       <c r="F19" s="44"/>
@@ -2787,14 +2792,14 @@
       <c r="AN19" s="9"/>
       <c r="AO19" s="9"/>
     </row>
-    <row r="20" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A20" s="9"/>
       <c r="B20" s="39" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C20" s="39"/>
       <c r="D20" s="17" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E20" s="44"/>
       <c r="F20" s="44"/>
@@ -2850,14 +2855,14 @@
       <c r="AN20" s="9"/>
       <c r="AO20" s="9"/>
     </row>
-    <row r="21" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A21" s="9"/>
       <c r="B21" s="39" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C21" s="39"/>
       <c r="D21" s="17" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E21" s="44"/>
       <c r="F21" s="44"/>
@@ -2915,14 +2920,14 @@
       <c r="AN21" s="9"/>
       <c r="AO21" s="9"/>
     </row>
-    <row r="22" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A22" s="9"/>
       <c r="B22" s="39" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C22" s="39"/>
       <c r="D22" s="18" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E22" s="44"/>
       <c r="F22" s="44"/>
@@ -2978,14 +2983,14 @@
       <c r="AN22" s="9"/>
       <c r="AO22" s="9"/>
     </row>
-    <row r="23" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A23" s="9"/>
       <c r="B23" s="39" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C23" s="39"/>
       <c r="D23" s="17" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E23" s="44"/>
       <c r="F23" s="44"/>
@@ -3041,14 +3046,14 @@
       <c r="AN23" s="9"/>
       <c r="AO23" s="9"/>
     </row>
-    <row r="24" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A24" s="9"/>
       <c r="B24" s="39" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C24" s="39"/>
       <c r="D24" s="39" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E24" s="44"/>
       <c r="F24" s="44"/>
@@ -3106,14 +3111,14 @@
       <c r="AN24" s="9"/>
       <c r="AO24" s="9"/>
     </row>
-    <row r="25" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A25" s="9"/>
       <c r="B25" s="39" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C25" s="39"/>
       <c r="D25" s="39" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E25" s="44"/>
       <c r="F25" s="44"/>
@@ -3165,10 +3170,10 @@
       <c r="AN25" s="9"/>
       <c r="AO25" s="9"/>
     </row>
-    <row r="26" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A26" s="9"/>
       <c r="B26" s="39" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C26" s="39"/>
       <c r="D26" s="39"/>
@@ -3222,10 +3227,10 @@
       <c r="AN26" s="9"/>
       <c r="AO26" s="9"/>
     </row>
-    <row r="27" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A27" s="9"/>
       <c r="B27" s="39" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C27" s="39"/>
       <c r="D27" s="39"/>
@@ -3279,10 +3284,10 @@
       <c r="AN27" s="9"/>
       <c r="AO27" s="9"/>
     </row>
-    <row r="28" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A28" s="9"/>
       <c r="B28" s="22" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C28" s="22"/>
       <c r="D28" s="40"/>
@@ -3348,7 +3353,7 @@
       <c r="AN28" s="9"/>
       <c r="AO28" s="9"/>
     </row>
-    <row r="29" spans="1:41" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:41" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -3368,10 +3373,10 @@
       <c r="R29" s="2"/>
       <c r="S29" s="3"/>
     </row>
-    <row r="30" spans="1:41" ht="50.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:41" ht="50.1" customHeight="1">
       <c r="A30" s="4"/>
       <c r="B30" s="75" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="C30" s="75"/>
       <c r="D30" s="75"/>
@@ -3384,12 +3389,12 @@
       <c r="K30" s="75"/>
       <c r="L30" s="75"/>
       <c r="M30" s="75"/>
-      <c r="N30" s="76"/>
-      <c r="O30" s="76"/>
-      <c r="P30" s="76"/>
-      <c r="Q30" s="76"/>
-      <c r="R30" s="76"/>
-      <c r="S30" s="76"/>
+      <c r="N30" s="83"/>
+      <c r="O30" s="83"/>
+      <c r="P30" s="83"/>
+      <c r="Q30" s="83"/>
+      <c r="R30" s="83"/>
+      <c r="S30" s="83"/>
       <c r="T30"/>
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
@@ -3413,7 +3418,7 @@
       <c r="AN30" s="4"/>
       <c r="AO30" s="4"/>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:41">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -3456,7 +3461,7 @@
       <c r="AN31" s="4"/>
       <c r="AO31" s="4"/>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:41">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -3499,7 +3504,7 @@
       <c r="AN32" s="4"/>
       <c r="AO32" s="4"/>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:41">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -3542,7 +3547,7 @@
       <c r="AN33" s="4"/>
       <c r="AO33" s="4"/>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:41">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -3585,7 +3590,7 @@
       <c r="AN34" s="4"/>
       <c r="AO34" s="4"/>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:41">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -3628,7 +3633,7 @@
       <c r="AN35" s="4"/>
       <c r="AO35" s="4"/>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:41">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -3671,7 +3676,7 @@
       <c r="AN36" s="4"/>
       <c r="AO36" s="4"/>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:41">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -3714,7 +3719,7 @@
       <c r="AN37" s="4"/>
       <c r="AO37" s="4"/>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:41">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -3757,7 +3762,7 @@
       <c r="AN38" s="4"/>
       <c r="AO38" s="4"/>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:41">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -3800,7 +3805,7 @@
       <c r="AN39" s="4"/>
       <c r="AO39" s="4"/>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:41">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -3843,7 +3848,7 @@
       <c r="AN40" s="4"/>
       <c r="AO40" s="4"/>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:41">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -3886,7 +3891,7 @@
       <c r="AN41" s="4"/>
       <c r="AO41" s="4"/>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:41">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -3929,7 +3934,7 @@
       <c r="AN42" s="4"/>
       <c r="AO42" s="4"/>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:41">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -3972,7 +3977,7 @@
       <c r="AN43" s="4"/>
       <c r="AO43" s="4"/>
     </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:41">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -4015,7 +4020,7 @@
       <c r="AN44" s="4"/>
       <c r="AO44" s="4"/>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:41">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -4058,7 +4063,7 @@
       <c r="AN45" s="4"/>
       <c r="AO45" s="4"/>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:41">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -4101,7 +4106,7 @@
       <c r="AN46" s="4"/>
       <c r="AO46" s="4"/>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:41">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -4144,7 +4149,7 @@
       <c r="AN47" s="4"/>
       <c r="AO47" s="4"/>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:41">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -4187,7 +4192,7 @@
       <c r="AN48" s="4"/>
       <c r="AO48" s="4"/>
     </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:41">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -4230,7 +4235,7 @@
       <c r="AN49" s="4"/>
       <c r="AO49" s="4"/>
     </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:41">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -4273,7 +4278,7 @@
       <c r="AN50" s="4"/>
       <c r="AO50" s="4"/>
     </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:41">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -4316,7 +4321,7 @@
       <c r="AN51" s="4"/>
       <c r="AO51" s="4"/>
     </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:41">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -4359,7 +4364,7 @@
       <c r="AN52" s="4"/>
       <c r="AO52" s="4"/>
     </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:41">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -4402,7 +4407,7 @@
       <c r="AN53" s="4"/>
       <c r="AO53" s="4"/>
     </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:41">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -4445,7 +4450,7 @@
       <c r="AN54" s="4"/>
       <c r="AO54" s="4"/>
     </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:41">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -4488,7 +4493,7 @@
       <c r="AN55" s="4"/>
       <c r="AO55" s="4"/>
     </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:41">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -4531,7 +4536,7 @@
       <c r="AN56" s="4"/>
       <c r="AO56" s="4"/>
     </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:41">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -4574,7 +4579,7 @@
       <c r="AN57" s="4"/>
       <c r="AO57" s="4"/>
     </row>
-    <row r="58" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:41">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -4617,7 +4622,7 @@
       <c r="AN58" s="4"/>
       <c r="AO58" s="4"/>
     </row>
-    <row r="59" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:41">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -4660,7 +4665,7 @@
       <c r="AN59" s="4"/>
       <c r="AO59" s="4"/>
     </row>
-    <row r="60" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:41">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -4703,7 +4708,7 @@
       <c r="AN60" s="4"/>
       <c r="AO60" s="4"/>
     </row>
-    <row r="61" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:41">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -4746,7 +4751,7 @@
       <c r="AN61" s="4"/>
       <c r="AO61" s="4"/>
     </row>
-    <row r="62" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:41">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -4789,7 +4794,7 @@
       <c r="AN62" s="4"/>
       <c r="AO62" s="4"/>
     </row>
-    <row r="63" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:41">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -4832,7 +4837,7 @@
       <c r="AN63" s="4"/>
       <c r="AO63" s="4"/>
     </row>
-    <row r="64" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:41">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -4875,7 +4880,7 @@
       <c r="AN64" s="4"/>
       <c r="AO64" s="4"/>
     </row>
-    <row r="65" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:41">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -4918,7 +4923,7 @@
       <c r="AN65" s="4"/>
       <c r="AO65" s="4"/>
     </row>
-    <row r="66" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:41">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -4961,7 +4966,7 @@
       <c r="AN66" s="4"/>
       <c r="AO66" s="4"/>
     </row>
-    <row r="67" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:41">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -5004,7 +5009,7 @@
       <c r="AN67" s="4"/>
       <c r="AO67" s="4"/>
     </row>
-    <row r="68" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:41">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -5047,7 +5052,7 @@
       <c r="AN68" s="4"/>
       <c r="AO68" s="4"/>
     </row>
-    <row r="69" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:41">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -5090,7 +5095,7 @@
       <c r="AN69" s="4"/>
       <c r="AO69" s="4"/>
     </row>
-    <row r="70" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:41">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -5133,7 +5138,7 @@
       <c r="AN70" s="4"/>
       <c r="AO70" s="4"/>
     </row>
-    <row r="71" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:41">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -5176,7 +5181,7 @@
       <c r="AN71" s="4"/>
       <c r="AO71" s="4"/>
     </row>
-    <row r="72" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:41">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -5219,7 +5224,7 @@
       <c r="AN72" s="4"/>
       <c r="AO72" s="4"/>
     </row>
-    <row r="73" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:41">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -5262,7 +5267,7 @@
       <c r="AN73" s="4"/>
       <c r="AO73" s="4"/>
     </row>
-    <row r="74" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:41">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -5305,7 +5310,7 @@
       <c r="AN74" s="4"/>
       <c r="AO74" s="4"/>
     </row>
-    <row r="75" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:41">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -5348,7 +5353,7 @@
       <c r="AN75" s="4"/>
       <c r="AO75" s="4"/>
     </row>
-    <row r="76" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:41">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -5371,7 +5376,7 @@
       <c r="T76" s="4"/>
       <c r="U76" s="4"/>
     </row>
-    <row r="77" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:41">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -5394,7 +5399,7 @@
       <c r="T77" s="4"/>
       <c r="U77" s="4"/>
     </row>
-    <row r="78" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:41">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -5417,7 +5422,7 @@
       <c r="T78" s="4"/>
       <c r="U78" s="4"/>
     </row>
-    <row r="79" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:41">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -5440,7 +5445,7 @@
       <c r="T79" s="4"/>
       <c r="U79" s="4"/>
     </row>
-    <row r="80" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:41">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -5463,7 +5468,7 @@
       <c r="T80" s="4"/>
       <c r="U80" s="4"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -5486,7 +5491,7 @@
       <c r="T81" s="4"/>
       <c r="U81" s="4"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -5509,7 +5514,7 @@
       <c r="T82" s="4"/>
       <c r="U82" s="4"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -5532,7 +5537,7 @@
       <c r="T83" s="4"/>
       <c r="U83" s="4"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -5555,7 +5560,7 @@
       <c r="T84" s="4"/>
       <c r="U84" s="4"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -5578,7 +5583,7 @@
       <c r="T85" s="4"/>
       <c r="U85" s="4"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -5601,7 +5606,7 @@
       <c r="T86" s="4"/>
       <c r="U86" s="4"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -5624,7 +5629,7 @@
       <c r="T87" s="4"/>
       <c r="U87" s="4"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -5647,7 +5652,7 @@
       <c r="T88" s="4"/>
       <c r="U88" s="4"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -5670,7 +5675,7 @@
       <c r="T89" s="4"/>
       <c r="U89" s="4"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -5693,7 +5698,7 @@
       <c r="T90" s="4"/>
       <c r="U90" s="4"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -5716,7 +5721,7 @@
       <c r="T91" s="4"/>
       <c r="U91" s="4"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -5739,7 +5744,7 @@
       <c r="T92" s="4"/>
       <c r="U92" s="4"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -5762,7 +5767,7 @@
       <c r="T93" s="4"/>
       <c r="U93" s="4"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -5785,7 +5790,7 @@
       <c r="T94" s="4"/>
       <c r="U94" s="4"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -5808,7 +5813,7 @@
       <c r="T95" s="4"/>
       <c r="U95" s="4"/>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -5831,7 +5836,7 @@
       <c r="T96" s="4"/>
       <c r="U96" s="4"/>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -5854,7 +5859,7 @@
       <c r="T97" s="4"/>
       <c r="U97" s="4"/>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -5877,7 +5882,7 @@
       <c r="T98" s="4"/>
       <c r="U98" s="4"/>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -5900,7 +5905,7 @@
       <c r="T99" s="4"/>
       <c r="U99" s="4"/>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -5923,7 +5928,7 @@
       <c r="T100" s="4"/>
       <c r="U100" s="4"/>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -5946,7 +5951,7 @@
       <c r="T101" s="4"/>
       <c r="U101" s="4"/>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -5969,7 +5974,7 @@
       <c r="T102" s="4"/>
       <c r="U102" s="4"/>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -5992,7 +5997,7 @@
       <c r="T103" s="4"/>
       <c r="U103" s="4"/>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -6015,7 +6020,7 @@
       <c r="T104" s="4"/>
       <c r="U104" s="4"/>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -6038,7 +6043,7 @@
       <c r="T105" s="4"/>
       <c r="U105" s="4"/>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -6061,7 +6066,7 @@
       <c r="T106" s="4"/>
       <c r="U106" s="4"/>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -6084,7 +6089,7 @@
       <c r="T107" s="4"/>
       <c r="U107" s="4"/>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -6107,7 +6112,7 @@
       <c r="T108" s="4"/>
       <c r="U108" s="4"/>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -6130,7 +6135,7 @@
       <c r="T109" s="4"/>
       <c r="U109" s="4"/>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -6153,7 +6158,7 @@
       <c r="T110" s="4"/>
       <c r="U110" s="4"/>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -6176,7 +6181,7 @@
       <c r="T111" s="4"/>
       <c r="U111" s="4"/>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -6199,7 +6204,7 @@
       <c r="T112" s="4"/>
       <c r="U112" s="4"/>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -6222,7 +6227,7 @@
       <c r="T113" s="4"/>
       <c r="U113" s="4"/>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -6245,7 +6250,7 @@
       <c r="T114" s="4"/>
       <c r="U114" s="4"/>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -6268,7 +6273,7 @@
       <c r="T115" s="4"/>
       <c r="U115" s="4"/>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -6291,7 +6296,7 @@
       <c r="T116" s="4"/>
       <c r="U116" s="4"/>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -6314,7 +6319,7 @@
       <c r="T117" s="4"/>
       <c r="U117" s="4"/>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -6337,7 +6342,7 @@
       <c r="T118" s="4"/>
       <c r="U118" s="4"/>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -6360,7 +6365,7 @@
       <c r="T119" s="4"/>
       <c r="U119" s="4"/>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -6383,7 +6388,7 @@
       <c r="T120" s="4"/>
       <c r="U120" s="4"/>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -6406,7 +6411,7 @@
       <c r="T121" s="4"/>
       <c r="U121" s="4"/>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -6429,7 +6434,7 @@
       <c r="T122" s="4"/>
       <c r="U122" s="4"/>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -6452,7 +6457,7 @@
       <c r="T123" s="4"/>
       <c r="U123" s="4"/>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -6475,7 +6480,7 @@
       <c r="T124" s="4"/>
       <c r="U124" s="4"/>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -6498,7 +6503,7 @@
       <c r="T125" s="4"/>
       <c r="U125" s="4"/>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -6521,7 +6526,7 @@
       <c r="T126" s="4"/>
       <c r="U126" s="4"/>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -6544,7 +6549,7 @@
       <c r="T127" s="4"/>
       <c r="U127" s="4"/>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -6567,7 +6572,7 @@
       <c r="T128" s="4"/>
       <c r="U128" s="4"/>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -6590,7 +6595,7 @@
       <c r="T129" s="4"/>
       <c r="U129" s="4"/>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -6613,7 +6618,7 @@
       <c r="T130" s="4"/>
       <c r="U130" s="4"/>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -6636,7 +6641,7 @@
       <c r="T131" s="4"/>
       <c r="U131" s="4"/>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -6659,7 +6664,7 @@
       <c r="T132" s="4"/>
       <c r="U132" s="4"/>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -6682,7 +6687,7 @@
       <c r="T133" s="4"/>
       <c r="U133" s="4"/>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -6705,7 +6710,7 @@
       <c r="T134" s="4"/>
       <c r="U134" s="4"/>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -6728,7 +6733,7 @@
       <c r="T135" s="4"/>
       <c r="U135" s="4"/>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -6751,7 +6756,7 @@
       <c r="T136" s="4"/>
       <c r="U136" s="4"/>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -6774,7 +6779,7 @@
       <c r="T137" s="4"/>
       <c r="U137" s="4"/>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -6797,7 +6802,7 @@
       <c r="T138" s="4"/>
       <c r="U138" s="4"/>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -6820,7 +6825,7 @@
       <c r="T139" s="4"/>
       <c r="U139" s="4"/>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -6843,7 +6848,7 @@
       <c r="T140" s="4"/>
       <c r="U140" s="4"/>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -6866,7 +6871,7 @@
       <c r="T141" s="4"/>
       <c r="U141" s="4"/>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -6889,7 +6894,7 @@
       <c r="T142" s="4"/>
       <c r="U142" s="4"/>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -6912,7 +6917,7 @@
       <c r="T143" s="4"/>
       <c r="U143" s="4"/>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -6935,7 +6940,7 @@
       <c r="T144" s="4"/>
       <c r="U144" s="4"/>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -6958,7 +6963,7 @@
       <c r="T145" s="4"/>
       <c r="U145" s="4"/>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -6981,7 +6986,7 @@
       <c r="T146" s="4"/>
       <c r="U146" s="4"/>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -7004,7 +7009,7 @@
       <c r="T147" s="4"/>
       <c r="U147" s="4"/>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -7027,7 +7032,7 @@
       <c r="T148" s="4"/>
       <c r="U148" s="4"/>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -7050,7 +7055,7 @@
       <c r="T149" s="4"/>
       <c r="U149" s="4"/>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -7073,7 +7078,7 @@
       <c r="T150" s="4"/>
       <c r="U150" s="4"/>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -7096,7 +7101,7 @@
       <c r="T151" s="4"/>
       <c r="U151" s="4"/>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:21">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -7119,7 +7124,7 @@
       <c r="T152" s="4"/>
       <c r="U152" s="4"/>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:21">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -7142,7 +7147,7 @@
       <c r="T153" s="4"/>
       <c r="U153" s="4"/>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:21">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -7165,7 +7170,7 @@
       <c r="T154" s="4"/>
       <c r="U154" s="4"/>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:21">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -7188,7 +7193,7 @@
       <c r="T155" s="4"/>
       <c r="U155" s="4"/>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:21">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -7211,7 +7216,7 @@
       <c r="T156" s="4"/>
       <c r="U156" s="4"/>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:21">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -7234,7 +7239,7 @@
       <c r="T157" s="4"/>
       <c r="U157" s="4"/>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:21">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -7257,7 +7262,7 @@
       <c r="T158" s="4"/>
       <c r="U158" s="4"/>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:21">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -7280,7 +7285,7 @@
       <c r="T159" s="4"/>
       <c r="U159" s="4"/>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:21">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -7303,7 +7308,7 @@
       <c r="T160" s="4"/>
       <c r="U160" s="4"/>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:21">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -7326,7 +7331,7 @@
       <c r="T161" s="4"/>
       <c r="U161" s="4"/>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:21">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -7349,7 +7354,7 @@
       <c r="T162" s="4"/>
       <c r="U162" s="4"/>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:21">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -7372,7 +7377,7 @@
       <c r="T163" s="4"/>
       <c r="U163" s="4"/>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:21">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -7395,7 +7400,7 @@
       <c r="T164" s="4"/>
       <c r="U164" s="4"/>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:21">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -7418,7 +7423,7 @@
       <c r="T165" s="4"/>
       <c r="U165" s="4"/>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:21">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -7441,7 +7446,7 @@
       <c r="T166" s="4"/>
       <c r="U166" s="4"/>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:21">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -7464,7 +7469,7 @@
       <c r="T167" s="4"/>
       <c r="U167" s="4"/>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:21">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -7487,7 +7492,7 @@
       <c r="T168" s="4"/>
       <c r="U168" s="4"/>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:21">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -7510,7 +7515,7 @@
       <c r="T169" s="4"/>
       <c r="U169" s="4"/>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:21">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -7533,7 +7538,7 @@
       <c r="T170" s="4"/>
       <c r="U170" s="4"/>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:21">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -7556,7 +7561,7 @@
       <c r="T171" s="4"/>
       <c r="U171" s="4"/>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:21">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -7579,7 +7584,7 @@
       <c r="T172" s="4"/>
       <c r="U172" s="4"/>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:21">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -7602,7 +7607,7 @@
       <c r="T173" s="4"/>
       <c r="U173" s="4"/>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:21">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -7625,7 +7630,7 @@
       <c r="T174" s="4"/>
       <c r="U174" s="4"/>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:21">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -7648,7 +7653,7 @@
       <c r="T175" s="4"/>
       <c r="U175" s="4"/>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:21">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -7671,7 +7676,7 @@
       <c r="T176" s="4"/>
       <c r="U176" s="4"/>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:21">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -7694,7 +7699,7 @@
       <c r="T177" s="4"/>
       <c r="U177" s="4"/>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:21">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -7717,7 +7722,7 @@
       <c r="T178" s="4"/>
       <c r="U178" s="4"/>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:21">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -7740,7 +7745,7 @@
       <c r="T179" s="4"/>
       <c r="U179" s="4"/>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:21">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -7763,7 +7768,7 @@
       <c r="T180" s="4"/>
       <c r="U180" s="4"/>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:21">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -7786,7 +7791,7 @@
       <c r="T181" s="4"/>
       <c r="U181" s="4"/>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:21">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -7809,7 +7814,7 @@
       <c r="T182" s="4"/>
       <c r="U182" s="4"/>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:21">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -7832,7 +7837,7 @@
       <c r="T183" s="4"/>
       <c r="U183" s="4"/>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:21">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -7855,7 +7860,7 @@
       <c r="T184" s="4"/>
       <c r="U184" s="4"/>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:21">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -7878,7 +7883,7 @@
       <c r="T185" s="4"/>
       <c r="U185" s="4"/>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:21">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -7901,7 +7906,7 @@
       <c r="T186" s="4"/>
       <c r="U186" s="4"/>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:21">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -7924,7 +7929,7 @@
       <c r="T187" s="4"/>
       <c r="U187" s="4"/>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:21">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -7947,7 +7952,7 @@
       <c r="T188" s="4"/>
       <c r="U188" s="4"/>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:21">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -7970,7 +7975,7 @@
       <c r="T189" s="4"/>
       <c r="U189" s="4"/>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:21">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -7993,7 +7998,7 @@
       <c r="T190" s="4"/>
       <c r="U190" s="4"/>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:21">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -8016,7 +8021,7 @@
       <c r="T191" s="4"/>
       <c r="U191" s="4"/>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:21">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -8039,7 +8044,7 @@
       <c r="T192" s="4"/>
       <c r="U192" s="4"/>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:21">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -8062,7 +8067,7 @@
       <c r="T193" s="4"/>
       <c r="U193" s="4"/>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:21">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -8085,7 +8090,7 @@
       <c r="T194" s="4"/>
       <c r="U194" s="4"/>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:21">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -8108,7 +8113,7 @@
       <c r="T195" s="4"/>
       <c r="U195" s="4"/>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:21">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -8131,7 +8136,7 @@
       <c r="T196" s="4"/>
       <c r="U196" s="4"/>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:21">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -8154,7 +8159,7 @@
       <c r="T197" s="4"/>
       <c r="U197" s="4"/>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:21">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -8177,7 +8182,7 @@
       <c r="T198" s="4"/>
       <c r="U198" s="4"/>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:21">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -8200,7 +8205,7 @@
       <c r="T199" s="4"/>
       <c r="U199" s="4"/>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:21">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -8223,7 +8228,7 @@
       <c r="T200" s="4"/>
       <c r="U200" s="4"/>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:21">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -8246,7 +8251,7 @@
       <c r="T201" s="4"/>
       <c r="U201" s="4"/>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:21">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -8269,7 +8274,7 @@
       <c r="T202" s="4"/>
       <c r="U202" s="4"/>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:21">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -8292,7 +8297,7 @@
       <c r="T203" s="4"/>
       <c r="U203" s="4"/>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:21">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -8315,7 +8320,7 @@
       <c r="T204" s="4"/>
       <c r="U204" s="4"/>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:21">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -8338,7 +8343,7 @@
       <c r="T205" s="4"/>
       <c r="U205" s="4"/>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:21">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -8361,7 +8366,7 @@
       <c r="T206" s="4"/>
       <c r="U206" s="4"/>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:21">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -8384,7 +8389,7 @@
       <c r="T207" s="4"/>
       <c r="U207" s="4"/>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:21">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -8407,7 +8412,7 @@
       <c r="T208" s="4"/>
       <c r="U208" s="4"/>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:21">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -8430,7 +8435,7 @@
       <c r="T209" s="4"/>
       <c r="U209" s="4"/>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:21">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -8453,7 +8458,7 @@
       <c r="T210" s="4"/>
       <c r="U210" s="4"/>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:21">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -8476,7 +8481,7 @@
       <c r="T211" s="4"/>
       <c r="U211" s="4"/>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:21">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -8499,7 +8504,7 @@
       <c r="T212" s="4"/>
       <c r="U212" s="4"/>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:21">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -8522,7 +8527,7 @@
       <c r="T213" s="4"/>
       <c r="U213" s="4"/>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:21">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -8545,7 +8550,7 @@
       <c r="T214" s="4"/>
       <c r="U214" s="4"/>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:21">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -8568,7 +8573,7 @@
       <c r="T215" s="4"/>
       <c r="U215" s="4"/>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:21">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -8591,7 +8596,7 @@
       <c r="T216" s="4"/>
       <c r="U216" s="4"/>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:21">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -8614,7 +8619,7 @@
       <c r="T217" s="4"/>
       <c r="U217" s="4"/>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:21">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -8637,7 +8642,7 @@
       <c r="T218" s="4"/>
       <c r="U218" s="4"/>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:21">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -8660,7 +8665,7 @@
       <c r="T219" s="4"/>
       <c r="U219" s="4"/>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:21">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -8683,7 +8688,7 @@
       <c r="T220" s="4"/>
       <c r="U220" s="4"/>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:21">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
@@ -8706,7 +8711,7 @@
       <c r="T221" s="4"/>
       <c r="U221" s="4"/>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:21">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -8729,7 +8734,7 @@
       <c r="T222" s="4"/>
       <c r="U222" s="4"/>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:21">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -8752,7 +8757,7 @@
       <c r="T223" s="4"/>
       <c r="U223" s="4"/>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:21">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
@@ -8775,7 +8780,7 @@
       <c r="T224" s="4"/>
       <c r="U224" s="4"/>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:21">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -8798,7 +8803,7 @@
       <c r="T225" s="4"/>
       <c r="U225" s="4"/>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:21">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -8821,7 +8826,7 @@
       <c r="T226" s="4"/>
       <c r="U226" s="4"/>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:21">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -8844,7 +8849,7 @@
       <c r="T227" s="4"/>
       <c r="U227" s="4"/>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:21">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
@@ -8867,7 +8872,7 @@
       <c r="T228" s="4"/>
       <c r="U228" s="4"/>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:21">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
@@ -8890,7 +8895,7 @@
       <c r="T229" s="4"/>
       <c r="U229" s="4"/>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:21">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -8913,7 +8918,7 @@
       <c r="T230" s="4"/>
       <c r="U230" s="4"/>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:21">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
@@ -8936,7 +8941,7 @@
       <c r="T231" s="4"/>
       <c r="U231" s="4"/>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:21">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
@@ -8959,7 +8964,7 @@
       <c r="T232" s="4"/>
       <c r="U232" s="4"/>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:21">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
@@ -8982,7 +8987,7 @@
       <c r="T233" s="4"/>
       <c r="U233" s="4"/>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:21">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
@@ -9005,7 +9010,7 @@
       <c r="T234" s="4"/>
       <c r="U234" s="4"/>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:21">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
@@ -9028,7 +9033,7 @@
       <c r="T235" s="4"/>
       <c r="U235" s="4"/>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:21">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
@@ -9051,7 +9056,7 @@
       <c r="T236" s="4"/>
       <c r="U236" s="4"/>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:21">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -9074,7 +9079,7 @@
       <c r="T237" s="4"/>
       <c r="U237" s="4"/>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:21">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
@@ -9097,7 +9102,7 @@
       <c r="T238" s="4"/>
       <c r="U238" s="4"/>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:21">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
@@ -9120,7 +9125,7 @@
       <c r="T239" s="4"/>
       <c r="U239" s="4"/>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:21">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
@@ -9143,7 +9148,7 @@
       <c r="T240" s="4"/>
       <c r="U240" s="4"/>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:21">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
@@ -9166,7 +9171,7 @@
       <c r="T241" s="4"/>
       <c r="U241" s="4"/>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:21">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
@@ -9189,7 +9194,7 @@
       <c r="T242" s="4"/>
       <c r="U242" s="4"/>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:21">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
@@ -9212,7 +9217,7 @@
       <c r="T243" s="4"/>
       <c r="U243" s="4"/>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:21">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
@@ -9235,7 +9240,7 @@
       <c r="T244" s="4"/>
       <c r="U244" s="4"/>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:21">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -9258,7 +9263,7 @@
       <c r="T245" s="4"/>
       <c r="U245" s="4"/>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:21">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -9281,7 +9286,7 @@
       <c r="T246" s="4"/>
       <c r="U246" s="4"/>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:21">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -9304,7 +9309,7 @@
       <c r="T247" s="4"/>
       <c r="U247" s="4"/>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:21">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
@@ -9327,7 +9332,7 @@
       <c r="T248" s="4"/>
       <c r="U248" s="4"/>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:21">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -9350,7 +9355,7 @@
       <c r="T249" s="4"/>
       <c r="U249" s="4"/>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:21">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
@@ -9373,7 +9378,7 @@
       <c r="T250" s="4"/>
       <c r="U250" s="4"/>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:21">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
@@ -9396,7 +9401,7 @@
       <c r="T251" s="4"/>
       <c r="U251" s="4"/>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:21">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -9419,7 +9424,7 @@
       <c r="T252" s="4"/>
       <c r="U252" s="4"/>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:21">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
@@ -9442,7 +9447,7 @@
       <c r="T253" s="4"/>
       <c r="U253" s="4"/>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:21">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
@@ -9465,7 +9470,7 @@
       <c r="T254" s="4"/>
       <c r="U254" s="4"/>
     </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:21">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
@@ -9488,7 +9493,7 @@
       <c r="T255" s="4"/>
       <c r="U255" s="4"/>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:21">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
@@ -9511,7 +9516,7 @@
       <c r="T256" s="4"/>
       <c r="U256" s="4"/>
     </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:21">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
@@ -9534,7 +9539,7 @@
       <c r="T257" s="4"/>
       <c r="U257" s="4"/>
     </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:21">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
@@ -9557,7 +9562,7 @@
       <c r="T258" s="4"/>
       <c r="U258" s="4"/>
     </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:21">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
@@ -9580,7 +9585,7 @@
       <c r="T259" s="4"/>
       <c r="U259" s="4"/>
     </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:21">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
@@ -9603,7 +9608,7 @@
       <c r="T260" s="4"/>
       <c r="U260" s="4"/>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:21">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
@@ -9626,7 +9631,7 @@
       <c r="T261" s="4"/>
       <c r="U261" s="4"/>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:21">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
@@ -9649,7 +9654,7 @@
       <c r="T262" s="4"/>
       <c r="U262" s="4"/>
     </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:21">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
@@ -9672,7 +9677,7 @@
       <c r="T263" s="4"/>
       <c r="U263" s="4"/>
     </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:21">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
@@ -9695,7 +9700,7 @@
       <c r="T264" s="4"/>
       <c r="U264" s="4"/>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:21">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
@@ -9718,7 +9723,7 @@
       <c r="T265" s="4"/>
       <c r="U265" s="4"/>
     </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:21">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
@@ -9741,7 +9746,7 @@
       <c r="T266" s="4"/>
       <c r="U266" s="4"/>
     </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:21">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
@@ -9764,7 +9769,7 @@
       <c r="T267" s="4"/>
       <c r="U267" s="4"/>
     </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:21">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
@@ -9787,7 +9792,7 @@
       <c r="T268" s="4"/>
       <c r="U268" s="4"/>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:21">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
@@ -9810,7 +9815,7 @@
       <c r="T269" s="4"/>
       <c r="U269" s="4"/>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:21">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
@@ -9833,7 +9838,7 @@
       <c r="T270" s="4"/>
       <c r="U270" s="4"/>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:21">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
@@ -9856,7 +9861,7 @@
       <c r="T271" s="4"/>
       <c r="U271" s="4"/>
     </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:21">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
@@ -9879,7 +9884,7 @@
       <c r="T272" s="4"/>
       <c r="U272" s="4"/>
     </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:21">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
@@ -9902,7 +9907,7 @@
       <c r="T273" s="4"/>
       <c r="U273" s="4"/>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:21">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
@@ -9925,7 +9930,7 @@
       <c r="T274" s="4"/>
       <c r="U274" s="4"/>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:21">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
@@ -9948,7 +9953,7 @@
       <c r="T275" s="4"/>
       <c r="U275" s="4"/>
     </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:21">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
@@ -9971,7 +9976,7 @@
       <c r="T276" s="4"/>
       <c r="U276" s="4"/>
     </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:21">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
@@ -9994,7 +9999,7 @@
       <c r="T277" s="4"/>
       <c r="U277" s="4"/>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:21">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
@@ -10017,7 +10022,7 @@
       <c r="T278" s="4"/>
       <c r="U278" s="4"/>
     </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:21">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
@@ -10040,7 +10045,7 @@
       <c r="T279" s="4"/>
       <c r="U279" s="4"/>
     </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:21">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
@@ -10063,7 +10068,7 @@
       <c r="T280" s="4"/>
       <c r="U280" s="4"/>
     </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:21">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
@@ -10086,7 +10091,7 @@
       <c r="T281" s="4"/>
       <c r="U281" s="4"/>
     </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:21">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
@@ -10109,7 +10114,7 @@
       <c r="T282" s="4"/>
       <c r="U282" s="4"/>
     </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:21">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
@@ -10132,7 +10137,7 @@
       <c r="T283" s="4"/>
       <c r="U283" s="4"/>
     </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:21">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
@@ -10155,7 +10160,7 @@
       <c r="T284" s="4"/>
       <c r="U284" s="4"/>
     </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:21">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
@@ -10178,7 +10183,7 @@
       <c r="T285" s="4"/>
       <c r="U285" s="4"/>
     </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:21">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
@@ -10201,7 +10206,7 @@
       <c r="T286" s="4"/>
       <c r="U286" s="4"/>
     </row>
-    <row r="287" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:21">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
@@ -10224,7 +10229,7 @@
       <c r="T287" s="4"/>
       <c r="U287" s="4"/>
     </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:21">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
@@ -10247,7 +10252,7 @@
       <c r="T288" s="4"/>
       <c r="U288" s="4"/>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:21">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
@@ -10270,7 +10275,7 @@
       <c r="T289" s="4"/>
       <c r="U289" s="4"/>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:21">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
@@ -10293,7 +10298,7 @@
       <c r="T290" s="4"/>
       <c r="U290" s="4"/>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:21">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
@@ -10316,7 +10321,7 @@
       <c r="T291" s="4"/>
       <c r="U291" s="4"/>
     </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:21">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
@@ -10339,7 +10344,7 @@
       <c r="T292" s="4"/>
       <c r="U292" s="4"/>
     </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:21">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
@@ -10362,7 +10367,7 @@
       <c r="T293" s="4"/>
       <c r="U293" s="4"/>
     </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:21">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
@@ -10385,7 +10390,7 @@
       <c r="T294" s="4"/>
       <c r="U294" s="4"/>
     </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:21">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
@@ -10408,7 +10413,7 @@
       <c r="T295" s="4"/>
       <c r="U295" s="4"/>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:21">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
@@ -10431,7 +10436,7 @@
       <c r="T296" s="4"/>
       <c r="U296" s="4"/>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:21">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
@@ -10454,7 +10459,7 @@
       <c r="T297" s="4"/>
       <c r="U297" s="4"/>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:21">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
@@ -10477,7 +10482,7 @@
       <c r="T298" s="4"/>
       <c r="U298" s="4"/>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:21">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
@@ -10500,7 +10505,7 @@
       <c r="T299" s="4"/>
       <c r="U299" s="4"/>
     </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:21">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
@@ -10523,7 +10528,7 @@
       <c r="T300" s="4"/>
       <c r="U300" s="4"/>
     </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:21">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
@@ -10546,7 +10551,7 @@
       <c r="T301" s="4"/>
       <c r="U301" s="4"/>
     </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:21">
       <c r="A302" s="4"/>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
@@ -10569,7 +10574,7 @@
       <c r="T302" s="4"/>
       <c r="U302" s="4"/>
     </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:21">
       <c r="A303" s="4"/>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
@@ -10592,7 +10597,7 @@
       <c r="T303" s="4"/>
       <c r="U303" s="4"/>
     </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:21">
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
@@ -10615,7 +10620,7 @@
       <c r="T304" s="4"/>
       <c r="U304" s="4"/>
     </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:21">
       <c r="A305" s="4"/>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
@@ -10638,7 +10643,7 @@
       <c r="T305" s="4"/>
       <c r="U305" s="4"/>
     </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:21">
       <c r="A306" s="4"/>
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
@@ -10661,7 +10666,7 @@
       <c r="T306" s="4"/>
       <c r="U306" s="4"/>
     </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:21">
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
@@ -10684,7 +10689,7 @@
       <c r="T307" s="4"/>
       <c r="U307" s="4"/>
     </row>
-    <row r="308" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:21">
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
@@ -10707,7 +10712,7 @@
       <c r="T308" s="4"/>
       <c r="U308" s="4"/>
     </row>
-    <row r="309" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:21">
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
@@ -10730,7 +10735,7 @@
       <c r="T309" s="4"/>
       <c r="U309" s="4"/>
     </row>
-    <row r="310" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:21">
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
@@ -10753,7 +10758,7 @@
       <c r="T310" s="4"/>
       <c r="U310" s="4"/>
     </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:21">
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
@@ -10776,7 +10781,7 @@
       <c r="T311" s="4"/>
       <c r="U311" s="4"/>
     </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:21">
       <c r="A312" s="4"/>
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
@@ -10799,7 +10804,7 @@
       <c r="T312" s="4"/>
       <c r="U312" s="4"/>
     </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:21">
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
@@ -10822,7 +10827,7 @@
       <c r="T313" s="4"/>
       <c r="U313" s="4"/>
     </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:21">
       <c r="A314" s="4"/>
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
@@ -10845,7 +10850,7 @@
       <c r="T314" s="4"/>
       <c r="U314" s="4"/>
     </row>
-    <row r="315" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:21">
       <c r="A315" s="4"/>
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
@@ -10868,7 +10873,7 @@
       <c r="T315" s="4"/>
       <c r="U315" s="4"/>
     </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:21">
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
@@ -10891,7 +10896,7 @@
       <c r="T316" s="4"/>
       <c r="U316" s="4"/>
     </row>
-    <row r="317" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:21">
       <c r="A317" s="4"/>
       <c r="B317" s="4"/>
       <c r="C317" s="4"/>
@@ -10914,7 +10919,7 @@
       <c r="T317" s="4"/>
       <c r="U317" s="4"/>
     </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:21">
       <c r="A318" s="4"/>
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
@@ -10937,7 +10942,7 @@
       <c r="T318" s="4"/>
       <c r="U318" s="4"/>
     </row>
-    <row r="319" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:21">
       <c r="A319" s="4"/>
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
@@ -10960,7 +10965,7 @@
       <c r="T319" s="4"/>
       <c r="U319" s="4"/>
     </row>
-    <row r="320" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:21">
       <c r="A320" s="4"/>
       <c r="B320" s="4"/>
       <c r="C320" s="4"/>
@@ -10983,7 +10988,7 @@
       <c r="T320" s="4"/>
       <c r="U320" s="4"/>
     </row>
-    <row r="321" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:21">
       <c r="A321" s="4"/>
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
@@ -11006,7 +11011,7 @@
       <c r="T321" s="4"/>
       <c r="U321" s="4"/>
     </row>
-    <row r="322" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:21">
       <c r="A322" s="4"/>
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
@@ -11029,7 +11034,7 @@
       <c r="T322" s="4"/>
       <c r="U322" s="4"/>
     </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:21">
       <c r="A323" s="4"/>
       <c r="B323" s="4"/>
       <c r="C323" s="4"/>
@@ -11052,7 +11057,7 @@
       <c r="T323" s="4"/>
       <c r="U323" s="4"/>
     </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:21">
       <c r="A324" s="4"/>
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
@@ -11075,7 +11080,7 @@
       <c r="T324" s="4"/>
       <c r="U324" s="4"/>
     </row>
-    <row r="325" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:21">
       <c r="A325" s="4"/>
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
@@ -11098,7 +11103,7 @@
       <c r="T325" s="4"/>
       <c r="U325" s="4"/>
     </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:21">
       <c r="A326" s="4"/>
       <c r="B326" s="4"/>
       <c r="C326" s="4"/>
@@ -11121,7 +11126,7 @@
       <c r="T326" s="4"/>
       <c r="U326" s="4"/>
     </row>
-    <row r="327" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:21">
       <c r="A327" s="4"/>
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
@@ -11144,7 +11149,7 @@
       <c r="T327" s="4"/>
       <c r="U327" s="4"/>
     </row>
-    <row r="328" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:21">
       <c r="A328" s="4"/>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
@@ -11167,7 +11172,7 @@
       <c r="T328" s="4"/>
       <c r="U328" s="4"/>
     </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:21">
       <c r="A329" s="4"/>
       <c r="B329" s="4"/>
       <c r="C329" s="4"/>
@@ -11190,7 +11195,7 @@
       <c r="T329" s="4"/>
       <c r="U329" s="4"/>
     </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:21">
       <c r="A330" s="4"/>
       <c r="B330" s="4"/>
       <c r="C330" s="4"/>
@@ -11213,7 +11218,7 @@
       <c r="T330" s="4"/>
       <c r="U330" s="4"/>
     </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:21">
       <c r="A331" s="4"/>
       <c r="B331" s="4"/>
       <c r="C331" s="4"/>
@@ -11236,7 +11241,7 @@
       <c r="T331" s="4"/>
       <c r="U331" s="4"/>
     </row>
-    <row r="332" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:21">
       <c r="A332" s="4"/>
       <c r="B332" s="4"/>
       <c r="C332" s="4"/>
@@ -11259,7 +11264,7 @@
       <c r="T332" s="4"/>
       <c r="U332" s="4"/>
     </row>
-    <row r="333" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:21">
       <c r="A333" s="4"/>
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
@@ -11282,7 +11287,7 @@
       <c r="T333" s="4"/>
       <c r="U333" s="4"/>
     </row>
-    <row r="334" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:21">
       <c r="A334" s="4"/>
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
@@ -11305,7 +11310,7 @@
       <c r="T334" s="4"/>
       <c r="U334" s="4"/>
     </row>
-    <row r="335" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:21">
       <c r="A335" s="4"/>
       <c r="B335" s="4"/>
       <c r="C335" s="4"/>
@@ -11328,7 +11333,7 @@
       <c r="T335" s="4"/>
       <c r="U335" s="4"/>
     </row>
-    <row r="336" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:21">
       <c r="A336" s="4"/>
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
@@ -11351,7 +11356,7 @@
       <c r="T336" s="4"/>
       <c r="U336" s="4"/>
     </row>
-    <row r="337" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:21">
       <c r="A337" s="4"/>
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
@@ -11374,7 +11379,7 @@
       <c r="T337" s="4"/>
       <c r="U337" s="4"/>
     </row>
-    <row r="338" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:21">
       <c r="A338" s="4"/>
       <c r="B338" s="4"/>
       <c r="C338" s="4"/>
@@ -11397,7 +11402,7 @@
       <c r="T338" s="4"/>
       <c r="U338" s="4"/>
     </row>
-    <row r="339" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:21">
       <c r="A339" s="4"/>
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
@@ -11420,7 +11425,7 @@
       <c r="T339" s="4"/>
       <c r="U339" s="4"/>
     </row>
-    <row r="340" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:21">
       <c r="A340" s="4"/>
       <c r="B340" s="4"/>
       <c r="C340" s="4"/>
@@ -11443,7 +11448,7 @@
       <c r="T340" s="4"/>
       <c r="U340" s="4"/>
     </row>
-    <row r="341" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:21">
       <c r="A341" s="4"/>
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
@@ -11466,7 +11471,7 @@
       <c r="T341" s="4"/>
       <c r="U341" s="4"/>
     </row>
-    <row r="342" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:21">
       <c r="A342" s="4"/>
       <c r="B342" s="4"/>
       <c r="C342" s="4"/>
@@ -11489,7 +11494,7 @@
       <c r="T342" s="4"/>
       <c r="U342" s="4"/>
     </row>
-    <row r="343" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:21">
       <c r="A343" s="4"/>
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
@@ -11512,7 +11517,7 @@
       <c r="T343" s="4"/>
       <c r="U343" s="4"/>
     </row>
-    <row r="344" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:21">
       <c r="A344" s="4"/>
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
@@ -11535,7 +11540,7 @@
       <c r="T344" s="4"/>
       <c r="U344" s="4"/>
     </row>
-    <row r="345" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:21">
       <c r="A345" s="4"/>
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
@@ -11558,7 +11563,7 @@
       <c r="T345" s="4"/>
       <c r="U345" s="4"/>
     </row>
-    <row r="346" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:21">
       <c r="A346" s="4"/>
       <c r="B346" s="4"/>
       <c r="C346" s="4"/>
@@ -11581,7 +11586,7 @@
       <c r="T346" s="4"/>
       <c r="U346" s="4"/>
     </row>
-    <row r="347" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:21">
       <c r="A347" s="4"/>
       <c r="B347" s="4"/>
       <c r="C347" s="4"/>
@@ -11604,7 +11609,7 @@
       <c r="T347" s="4"/>
       <c r="U347" s="4"/>
     </row>
-    <row r="348" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:21">
       <c r="A348" s="4"/>
       <c r="B348" s="4"/>
       <c r="C348" s="4"/>
@@ -11627,7 +11632,7 @@
       <c r="T348" s="4"/>
       <c r="U348" s="4"/>
     </row>
-    <row r="349" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:21">
       <c r="A349" s="4"/>
       <c r="B349" s="4"/>
       <c r="C349" s="4"/>
@@ -11650,7 +11655,7 @@
       <c r="T349" s="4"/>
       <c r="U349" s="4"/>
     </row>
-    <row r="350" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:21">
       <c r="A350" s="4"/>
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
@@ -11673,7 +11678,7 @@
       <c r="T350" s="4"/>
       <c r="U350" s="4"/>
     </row>
-    <row r="351" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:21">
       <c r="A351" s="4"/>
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
@@ -11696,7 +11701,7 @@
       <c r="T351" s="4"/>
       <c r="U351" s="4"/>
     </row>
-    <row r="352" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:21">
       <c r="A352" s="4"/>
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
@@ -11719,7 +11724,7 @@
       <c r="T352" s="4"/>
       <c r="U352" s="4"/>
     </row>
-    <row r="353" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:21">
       <c r="A353" s="4"/>
       <c r="B353" s="4"/>
       <c r="C353" s="4"/>
@@ -11742,7 +11747,7 @@
       <c r="T353" s="4"/>
       <c r="U353" s="4"/>
     </row>
-    <row r="354" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:21">
       <c r="A354" s="4"/>
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
@@ -11765,7 +11770,7 @@
       <c r="T354" s="4"/>
       <c r="U354" s="4"/>
     </row>
-    <row r="355" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:21">
       <c r="A355" s="4"/>
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
@@ -11788,7 +11793,7 @@
       <c r="T355" s="4"/>
       <c r="U355" s="4"/>
     </row>
-    <row r="356" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:21">
       <c r="A356" s="4"/>
       <c r="B356" s="4"/>
       <c r="C356" s="4"/>
@@ -11811,7 +11816,7 @@
       <c r="T356" s="4"/>
       <c r="U356" s="4"/>
     </row>
-    <row r="357" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:21">
       <c r="A357" s="4"/>
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
@@ -11834,7 +11839,7 @@
       <c r="T357" s="4"/>
       <c r="U357" s="4"/>
     </row>
-    <row r="358" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:21">
       <c r="A358" s="4"/>
       <c r="B358" s="4"/>
       <c r="C358" s="4"/>
@@ -11857,7 +11862,7 @@
       <c r="T358" s="4"/>
       <c r="U358" s="4"/>
     </row>
-    <row r="359" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:21">
       <c r="A359" s="4"/>
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
@@ -11880,7 +11885,7 @@
       <c r="T359" s="4"/>
       <c r="U359" s="4"/>
     </row>
-    <row r="360" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:21">
       <c r="A360" s="4"/>
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
@@ -11903,7 +11908,7 @@
       <c r="T360" s="4"/>
       <c r="U360" s="4"/>
     </row>
-    <row r="361" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:21">
       <c r="A361" s="4"/>
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
@@ -11926,7 +11931,7 @@
       <c r="T361" s="4"/>
       <c r="U361" s="4"/>
     </row>
-    <row r="362" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:21">
       <c r="A362" s="4"/>
       <c r="B362" s="4"/>
       <c r="C362" s="4"/>
@@ -11949,7 +11954,7 @@
       <c r="T362" s="4"/>
       <c r="U362" s="4"/>
     </row>
-    <row r="363" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:21">
       <c r="A363" s="4"/>
       <c r="B363" s="4"/>
       <c r="C363" s="4"/>
@@ -11972,7 +11977,7 @@
       <c r="T363" s="4"/>
       <c r="U363" s="4"/>
     </row>
-    <row r="364" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:21">
       <c r="A364" s="4"/>
       <c r="B364" s="4"/>
       <c r="C364" s="4"/>
@@ -11995,7 +12000,7 @@
       <c r="T364" s="4"/>
       <c r="U364" s="4"/>
     </row>
-    <row r="365" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:21">
       <c r="A365" s="4"/>
       <c r="B365" s="4"/>
       <c r="C365" s="4"/>
@@ -12018,7 +12023,7 @@
       <c r="T365" s="4"/>
       <c r="U365" s="4"/>
     </row>
-    <row r="366" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:21">
       <c r="A366" s="4"/>
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
@@ -12041,7 +12046,7 @@
       <c r="T366" s="4"/>
       <c r="U366" s="4"/>
     </row>
-    <row r="367" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:21">
       <c r="A367" s="4"/>
       <c r="B367" s="4"/>
       <c r="C367" s="4"/>
@@ -12064,7 +12069,7 @@
       <c r="T367" s="4"/>
       <c r="U367" s="4"/>
     </row>
-    <row r="368" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:21">
       <c r="A368" s="4"/>
       <c r="B368" s="4"/>
       <c r="C368" s="4"/>
@@ -12087,7 +12092,7 @@
       <c r="T368" s="4"/>
       <c r="U368" s="4"/>
     </row>
-    <row r="369" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:21">
       <c r="A369" s="4"/>
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
@@ -12110,7 +12115,7 @@
       <c r="T369" s="4"/>
       <c r="U369" s="4"/>
     </row>
-    <row r="370" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:21">
       <c r="A370" s="4"/>
       <c r="B370" s="4"/>
       <c r="C370" s="4"/>
@@ -12133,7 +12138,7 @@
       <c r="T370" s="4"/>
       <c r="U370" s="4"/>
     </row>
-    <row r="371" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:21">
       <c r="A371" s="4"/>
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
@@ -12156,7 +12161,7 @@
       <c r="T371" s="4"/>
       <c r="U371" s="4"/>
     </row>
-    <row r="372" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:21">
       <c r="A372" s="4"/>
       <c r="B372" s="4"/>
       <c r="C372" s="4"/>
@@ -12179,7 +12184,7 @@
       <c r="T372" s="4"/>
       <c r="U372" s="4"/>
     </row>
-    <row r="373" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:21">
       <c r="A373" s="4"/>
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
@@ -12202,7 +12207,7 @@
       <c r="T373" s="4"/>
       <c r="U373" s="4"/>
     </row>
-    <row r="374" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:21">
       <c r="A374" s="4"/>
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
@@ -12225,7 +12230,7 @@
       <c r="T374" s="4"/>
       <c r="U374" s="4"/>
     </row>
-    <row r="375" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:21">
       <c r="A375" s="4"/>
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
@@ -12248,7 +12253,7 @@
       <c r="T375" s="4"/>
       <c r="U375" s="4"/>
     </row>
-    <row r="376" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:21">
       <c r="A376" s="4"/>
       <c r="B376" s="4"/>
       <c r="C376" s="4"/>
@@ -12271,7 +12276,7 @@
       <c r="T376" s="4"/>
       <c r="U376" s="4"/>
     </row>
-    <row r="377" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:21">
       <c r="A377" s="4"/>
       <c r="B377" s="4"/>
       <c r="C377" s="4"/>
@@ -12294,7 +12299,7 @@
       <c r="T377" s="4"/>
       <c r="U377" s="4"/>
     </row>
-    <row r="378" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:21">
       <c r="A378" s="4"/>
       <c r="B378" s="4"/>
       <c r="C378" s="4"/>
@@ -12317,7 +12322,7 @@
       <c r="T378" s="4"/>
       <c r="U378" s="4"/>
     </row>
-    <row r="379" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:21">
       <c r="A379" s="4"/>
       <c r="B379" s="4"/>
       <c r="C379" s="4"/>
@@ -12340,7 +12345,7 @@
       <c r="T379" s="4"/>
       <c r="U379" s="4"/>
     </row>
-    <row r="380" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:21">
       <c r="A380" s="4"/>
       <c r="B380" s="4"/>
       <c r="C380" s="4"/>
@@ -12363,7 +12368,7 @@
       <c r="T380" s="4"/>
       <c r="U380" s="4"/>
     </row>
-    <row r="381" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:21">
       <c r="A381" s="4"/>
       <c r="B381" s="4"/>
       <c r="C381" s="4"/>
@@ -12386,7 +12391,7 @@
       <c r="T381" s="4"/>
       <c r="U381" s="4"/>
     </row>
-    <row r="382" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:21">
       <c r="A382" s="4"/>
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
@@ -12409,7 +12414,7 @@
       <c r="T382" s="4"/>
       <c r="U382" s="4"/>
     </row>
-    <row r="383" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:21">
       <c r="A383" s="4"/>
       <c r="B383" s="4"/>
       <c r="C383" s="4"/>
@@ -12432,7 +12437,7 @@
       <c r="T383" s="4"/>
       <c r="U383" s="4"/>
     </row>
-    <row r="384" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:21">
       <c r="A384" s="4"/>
       <c r="B384" s="4"/>
       <c r="C384" s="4"/>
@@ -12455,7 +12460,7 @@
       <c r="T384" s="4"/>
       <c r="U384" s="4"/>
     </row>
-    <row r="385" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:21">
       <c r="A385" s="4"/>
       <c r="B385" s="4"/>
       <c r="C385" s="4"/>
@@ -12478,7 +12483,7 @@
       <c r="T385" s="4"/>
       <c r="U385" s="4"/>
     </row>
-    <row r="386" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:21">
       <c r="A386" s="4"/>
       <c r="B386" s="4"/>
       <c r="C386" s="4"/>
@@ -12501,7 +12506,7 @@
       <c r="T386" s="4"/>
       <c r="U386" s="4"/>
     </row>
-    <row r="387" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:21">
       <c r="A387" s="4"/>
       <c r="B387" s="4"/>
       <c r="C387" s="4"/>
@@ -12524,7 +12529,7 @@
       <c r="T387" s="4"/>
       <c r="U387" s="4"/>
     </row>
-    <row r="388" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:21">
       <c r="A388" s="4"/>
       <c r="B388" s="4"/>
       <c r="C388" s="4"/>
@@ -12547,7 +12552,7 @@
       <c r="T388" s="4"/>
       <c r="U388" s="4"/>
     </row>
-    <row r="389" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:21">
       <c r="A389" s="4"/>
       <c r="B389" s="4"/>
       <c r="C389" s="4"/>
@@ -12570,7 +12575,7 @@
       <c r="T389" s="4"/>
       <c r="U389" s="4"/>
     </row>
-    <row r="390" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:21">
       <c r="A390" s="4"/>
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
@@ -12593,7 +12598,7 @@
       <c r="T390" s="4"/>
       <c r="U390" s="4"/>
     </row>
-    <row r="391" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:21">
       <c r="A391" s="4"/>
       <c r="B391" s="4"/>
       <c r="C391" s="4"/>
@@ -12616,7 +12621,7 @@
       <c r="T391" s="4"/>
       <c r="U391" s="4"/>
     </row>
-    <row r="392" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:21">
       <c r="A392" s="4"/>
       <c r="B392" s="4"/>
       <c r="C392" s="4"/>
@@ -12639,7 +12644,7 @@
       <c r="T392" s="4"/>
       <c r="U392" s="4"/>
     </row>
-    <row r="393" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:21">
       <c r="A393" s="4"/>
       <c r="B393" s="4"/>
       <c r="C393" s="4"/>
@@ -12662,7 +12667,7 @@
       <c r="T393" s="4"/>
       <c r="U393" s="4"/>
     </row>
-    <row r="394" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:21">
       <c r="A394" s="4"/>
       <c r="B394" s="4"/>
       <c r="C394" s="4"/>
@@ -12685,7 +12690,7 @@
       <c r="T394" s="4"/>
       <c r="U394" s="4"/>
     </row>
-    <row r="395" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:21">
       <c r="A395" s="4"/>
       <c r="B395" s="4"/>
       <c r="C395" s="4"/>
@@ -12708,7 +12713,7 @@
       <c r="T395" s="4"/>
       <c r="U395" s="4"/>
     </row>
-    <row r="396" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:21">
       <c r="A396" s="4"/>
       <c r="B396" s="4"/>
       <c r="C396" s="4"/>
@@ -12731,7 +12736,7 @@
       <c r="T396" s="4"/>
       <c r="U396" s="4"/>
     </row>
-    <row r="397" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:21">
       <c r="A397" s="4"/>
       <c r="B397" s="4"/>
       <c r="C397" s="4"/>
@@ -12754,7 +12759,7 @@
       <c r="T397" s="4"/>
       <c r="U397" s="4"/>
     </row>
-    <row r="398" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:21">
       <c r="A398" s="4"/>
       <c r="B398" s="4"/>
       <c r="C398" s="4"/>
@@ -12777,7 +12782,7 @@
       <c r="T398" s="4"/>
       <c r="U398" s="4"/>
     </row>
-    <row r="399" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:21">
       <c r="A399" s="4"/>
       <c r="B399" s="4"/>
       <c r="C399" s="4"/>
@@ -12800,7 +12805,7 @@
       <c r="T399" s="4"/>
       <c r="U399" s="4"/>
     </row>
-    <row r="400" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:21">
       <c r="A400" s="4"/>
       <c r="B400" s="4"/>
       <c r="C400" s="4"/>
@@ -12823,7 +12828,7 @@
       <c r="T400" s="4"/>
       <c r="U400" s="4"/>
     </row>
-    <row r="401" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:21">
       <c r="A401" s="4"/>
       <c r="B401" s="4"/>
       <c r="C401" s="4"/>
@@ -12846,7 +12851,7 @@
       <c r="T401" s="4"/>
       <c r="U401" s="4"/>
     </row>
-    <row r="402" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:21">
       <c r="A402" s="4"/>
       <c r="B402" s="4"/>
       <c r="C402" s="4"/>
@@ -12869,7 +12874,7 @@
       <c r="T402" s="4"/>
       <c r="U402" s="4"/>
     </row>
-    <row r="403" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:21">
       <c r="A403" s="4"/>
       <c r="B403" s="4"/>
       <c r="C403" s="4"/>
@@ -12892,7 +12897,7 @@
       <c r="T403" s="4"/>
       <c r="U403" s="4"/>
     </row>
-    <row r="404" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:21">
       <c r="A404" s="4"/>
       <c r="B404" s="4"/>
       <c r="C404" s="4"/>
@@ -12915,7 +12920,7 @@
       <c r="T404" s="4"/>
       <c r="U404" s="4"/>
     </row>
-    <row r="405" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:21">
       <c r="A405" s="4"/>
       <c r="B405" s="4"/>
       <c r="C405" s="4"/>
@@ -12938,7 +12943,7 @@
       <c r="T405" s="4"/>
       <c r="U405" s="4"/>
     </row>
-    <row r="406" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:21">
       <c r="A406" s="4"/>
       <c r="B406" s="4"/>
       <c r="C406" s="4"/>
@@ -12961,7 +12966,7 @@
       <c r="T406" s="4"/>
       <c r="U406" s="4"/>
     </row>
-    <row r="407" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:21">
       <c r="A407" s="4"/>
       <c r="B407" s="4"/>
       <c r="C407" s="4"/>
@@ -12984,7 +12989,7 @@
       <c r="T407" s="4"/>
       <c r="U407" s="4"/>
     </row>
-    <row r="408" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:21">
       <c r="A408" s="4"/>
       <c r="B408" s="4"/>
       <c r="C408" s="4"/>
@@ -13007,7 +13012,7 @@
       <c r="T408" s="4"/>
       <c r="U408" s="4"/>
     </row>
-    <row r="409" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:21">
       <c r="A409" s="4"/>
       <c r="B409" s="4"/>
       <c r="C409" s="4"/>
@@ -13030,7 +13035,7 @@
       <c r="T409" s="4"/>
       <c r="U409" s="4"/>
     </row>
-    <row r="410" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:21">
       <c r="A410" s="4"/>
       <c r="B410" s="4"/>
       <c r="C410" s="4"/>
@@ -13053,7 +13058,7 @@
       <c r="T410" s="4"/>
       <c r="U410" s="4"/>
     </row>
-    <row r="411" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:21">
       <c r="A411" s="4"/>
       <c r="B411" s="4"/>
       <c r="C411" s="4"/>
@@ -13076,7 +13081,7 @@
       <c r="T411" s="4"/>
       <c r="U411" s="4"/>
     </row>
-    <row r="412" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:21">
       <c r="A412" s="4"/>
       <c r="B412" s="4"/>
       <c r="C412" s="4"/>
@@ -13099,7 +13104,7 @@
       <c r="T412" s="4"/>
       <c r="U412" s="4"/>
     </row>
-    <row r="413" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:21">
       <c r="A413" s="4"/>
       <c r="B413" s="4"/>
       <c r="C413" s="4"/>
@@ -13122,7 +13127,7 @@
       <c r="T413" s="4"/>
       <c r="U413" s="4"/>
     </row>
-    <row r="414" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:21">
       <c r="A414" s="4"/>
       <c r="B414" s="4"/>
       <c r="C414" s="4"/>
@@ -13145,7 +13150,7 @@
       <c r="T414" s="4"/>
       <c r="U414" s="4"/>
     </row>
-    <row r="415" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:21">
       <c r="A415" s="4"/>
       <c r="B415" s="4"/>
       <c r="C415" s="4"/>
@@ -13168,7 +13173,7 @@
       <c r="T415" s="4"/>
       <c r="U415" s="4"/>
     </row>
-    <row r="416" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:21">
       <c r="A416" s="4"/>
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
@@ -13191,7 +13196,7 @@
       <c r="T416" s="4"/>
       <c r="U416" s="4"/>
     </row>
-    <row r="417" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:21">
       <c r="A417" s="4"/>
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
@@ -13214,7 +13219,7 @@
       <c r="T417" s="4"/>
       <c r="U417" s="4"/>
     </row>
-    <row r="418" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:21">
       <c r="A418" s="4"/>
       <c r="B418" s="4"/>
       <c r="C418" s="4"/>
@@ -13339,7 +13344,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.125" style="5" customWidth="1"/>
     <col min="2" max="2" width="13.875" style="5" customWidth="1"/>
@@ -13357,10 +13362,10 @@
     <col min="21" max="16384" width="11" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="4"/>
       <c r="B1" s="36" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -13402,36 +13407,36 @@
       <c r="AN1" s="4"/>
       <c r="AO1" s="4"/>
     </row>
-    <row r="2" spans="1:41" s="10" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" s="10" customFormat="1" ht="35.1" customHeight="1">
       <c r="A2" s="9"/>
       <c r="B2" s="42" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C2" s="42"/>
       <c r="D2" s="42"/>
       <c r="E2" s="42"/>
       <c r="F2" s="42"/>
       <c r="G2" s="57"/>
-      <c r="H2" s="80" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="82" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="78"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="77" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" s="78"/>
-      <c r="S2" s="79"/>
+      <c r="H2" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="77"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="77"/>
+      <c r="S2" s="78"/>
       <c r="T2" s="9"/>
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
@@ -13455,61 +13460,61 @@
       <c r="AN2" s="9"/>
       <c r="AO2" s="9"/>
     </row>
-    <row r="3" spans="1:41" s="10" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" s="10" customFormat="1" ht="35.1" customHeight="1">
       <c r="A3" s="9"/>
       <c r="B3" s="37" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="G3" s="58" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="H3" s="50" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="N3" s="20" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="O3" s="20" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="P3" s="48" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="Q3" s="55" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="R3" s="54" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="S3" s="52" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="T3" s="9"/>
       <c r="U3" s="9"/>
@@ -13534,10 +13539,10 @@
       <c r="AN3" s="9"/>
       <c r="AO3" s="9"/>
     </row>
-    <row r="4" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A4" s="9"/>
       <c r="B4" s="38" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C4" s="38"/>
       <c r="D4" s="38"/>
@@ -13579,10 +13584,10 @@
       <c r="AN4" s="9"/>
       <c r="AO4" s="9"/>
     </row>
-    <row r="5" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A5" s="9"/>
       <c r="B5" s="39" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C5" s="39"/>
       <c r="D5" s="16"/>
@@ -13636,10 +13641,10 @@
       <c r="AN5" s="9"/>
       <c r="AO5" s="9"/>
     </row>
-    <row r="6" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A6" s="9"/>
       <c r="B6" s="39" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C6" s="39"/>
       <c r="D6" s="17"/>
@@ -13693,10 +13698,10 @@
       <c r="AN6" s="9"/>
       <c r="AO6" s="9"/>
     </row>
-    <row r="7" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A7" s="9"/>
       <c r="B7" s="39" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C7" s="39"/>
       <c r="D7" s="17"/>
@@ -13750,10 +13755,10 @@
       <c r="AN7" s="9"/>
       <c r="AO7" s="9"/>
     </row>
-    <row r="8" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A8" s="9"/>
       <c r="B8" s="39" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C8" s="39"/>
       <c r="D8" s="18"/>
@@ -13807,10 +13812,10 @@
       <c r="AN8" s="9"/>
       <c r="AO8" s="9"/>
     </row>
-    <row r="9" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A9" s="9"/>
       <c r="B9" s="39" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C9" s="39"/>
       <c r="D9" s="17"/>
@@ -13864,10 +13869,10 @@
       <c r="AN9" s="9"/>
       <c r="AO9" s="9"/>
     </row>
-    <row r="10" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A10" s="9"/>
       <c r="B10" s="39" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C10" s="39"/>
       <c r="D10" s="39"/>
@@ -13921,10 +13926,10 @@
       <c r="AN10" s="9"/>
       <c r="AO10" s="9"/>
     </row>
-    <row r="11" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A11" s="9"/>
       <c r="B11" s="39" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C11" s="39"/>
       <c r="D11" s="39"/>
@@ -13978,10 +13983,10 @@
       <c r="AN11" s="9"/>
       <c r="AO11" s="9"/>
     </row>
-    <row r="12" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A12" s="9"/>
       <c r="B12" s="39" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C12" s="39"/>
       <c r="D12" s="39"/>
@@ -14035,10 +14040,10 @@
       <c r="AN12" s="9"/>
       <c r="AO12" s="9"/>
     </row>
-    <row r="13" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A13" s="9"/>
       <c r="B13" s="39" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
@@ -14092,10 +14097,10 @@
       <c r="AN13" s="9"/>
       <c r="AO13" s="9"/>
     </row>
-    <row r="14" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A14" s="9"/>
       <c r="B14" s="22" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="40"/>
@@ -14161,7 +14166,7 @@
       <c r="AN14" s="9"/>
       <c r="AO14" s="9"/>
     </row>
-    <row r="15" spans="1:41" s="10" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:41" s="10" customFormat="1" ht="11.1" customHeight="1" thickBot="1">
       <c r="A15" s="9"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -14204,36 +14209,36 @@
       <c r="AN15" s="9"/>
       <c r="AO15" s="9"/>
     </row>
-    <row r="16" spans="1:41" s="10" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" s="10" customFormat="1" ht="35.1" customHeight="1">
       <c r="A16" s="9"/>
       <c r="B16" s="42" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C16" s="42"/>
       <c r="D16" s="42"/>
       <c r="E16" s="42"/>
       <c r="F16" s="42"/>
       <c r="G16" s="57"/>
-      <c r="H16" s="80" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="81" t="s">
-        <v>25</v>
-      </c>
-      <c r="L16" s="81"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="82" t="s">
-        <v>26</v>
-      </c>
-      <c r="O16" s="78"/>
-      <c r="P16" s="83"/>
-      <c r="Q16" s="77" t="s">
-        <v>27</v>
-      </c>
-      <c r="R16" s="78"/>
-      <c r="S16" s="79"/>
+      <c r="H16" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="L16" s="80"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="O16" s="77"/>
+      <c r="P16" s="82"/>
+      <c r="Q16" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="R16" s="77"/>
+      <c r="S16" s="78"/>
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
       <c r="V16" s="9"/>
@@ -14257,61 +14262,61 @@
       <c r="AN16" s="9"/>
       <c r="AO16" s="9"/>
     </row>
-    <row r="17" spans="1:41" s="10" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" s="10" customFormat="1" ht="35.1" customHeight="1">
       <c r="A17" s="9"/>
       <c r="B17" s="37" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="G17" s="58" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="H17" s="50" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I17" s="21" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="J17" s="21" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="K17" s="20" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="L17" s="20" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="M17" s="20" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="N17" s="20" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="O17" s="20" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="P17" s="48" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="Q17" s="55" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="R17" s="54" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="S17" s="52" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
@@ -14336,10 +14341,10 @@
       <c r="AN17" s="9"/>
       <c r="AO17" s="9"/>
     </row>
-    <row r="18" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A18" s="9"/>
       <c r="B18" s="38" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C18" s="38"/>
       <c r="D18" s="38"/>
@@ -14381,10 +14386,10 @@
       <c r="AN18" s="9"/>
       <c r="AO18" s="9"/>
     </row>
-    <row r="19" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A19" s="9"/>
       <c r="B19" s="39" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C19" s="39"/>
       <c r="D19" s="16"/>
@@ -14438,10 +14443,10 @@
       <c r="AN19" s="9"/>
       <c r="AO19" s="9"/>
     </row>
-    <row r="20" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A20" s="9"/>
       <c r="B20" s="39" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C20" s="39"/>
       <c r="D20" s="17"/>
@@ -14495,10 +14500,10 @@
       <c r="AN20" s="9"/>
       <c r="AO20" s="9"/>
     </row>
-    <row r="21" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A21" s="9"/>
       <c r="B21" s="39" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C21" s="39"/>
       <c r="D21" s="17"/>
@@ -14552,10 +14557,10 @@
       <c r="AN21" s="9"/>
       <c r="AO21" s="9"/>
     </row>
-    <row r="22" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A22" s="9"/>
       <c r="B22" s="39" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C22" s="39"/>
       <c r="D22" s="18"/>
@@ -14609,10 +14614,10 @@
       <c r="AN22" s="9"/>
       <c r="AO22" s="9"/>
     </row>
-    <row r="23" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A23" s="9"/>
       <c r="B23" s="39" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C23" s="39"/>
       <c r="D23" s="17"/>
@@ -14666,10 +14671,10 @@
       <c r="AN23" s="9"/>
       <c r="AO23" s="9"/>
     </row>
-    <row r="24" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A24" s="9"/>
       <c r="B24" s="39" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C24" s="39"/>
       <c r="D24" s="39"/>
@@ -14723,10 +14728,10 @@
       <c r="AN24" s="9"/>
       <c r="AO24" s="9"/>
     </row>
-    <row r="25" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A25" s="9"/>
       <c r="B25" s="39" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C25" s="39"/>
       <c r="D25" s="39"/>
@@ -14780,10 +14785,10 @@
       <c r="AN25" s="9"/>
       <c r="AO25" s="9"/>
     </row>
-    <row r="26" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A26" s="9"/>
       <c r="B26" s="39" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C26" s="39"/>
       <c r="D26" s="39"/>
@@ -14837,10 +14842,10 @@
       <c r="AN26" s="9"/>
       <c r="AO26" s="9"/>
     </row>
-    <row r="27" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A27" s="9"/>
       <c r="B27" s="39" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C27" s="39"/>
       <c r="D27" s="39"/>
@@ -14894,10 +14899,10 @@
       <c r="AN27" s="9"/>
       <c r="AO27" s="9"/>
     </row>
-    <row r="28" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41" s="10" customFormat="1" ht="30" customHeight="1">
       <c r="A28" s="9"/>
       <c r="B28" s="22" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C28" s="22"/>
       <c r="D28" s="40"/>
@@ -14963,7 +14968,7 @@
       <c r="AN28" s="9"/>
       <c r="AO28" s="9"/>
     </row>
-    <row r="29" spans="1:41" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:41" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -14983,7 +14988,7 @@
       <c r="R29" s="2"/>
       <c r="S29" s="3"/>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:41">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -15026,7 +15031,7 @@
       <c r="AN30" s="4"/>
       <c r="AO30" s="4"/>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:41">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -15069,7 +15074,7 @@
       <c r="AN31" s="4"/>
       <c r="AO31" s="4"/>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:41">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -15112,7 +15117,7 @@
       <c r="AN32" s="4"/>
       <c r="AO32" s="4"/>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:41">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -15155,7 +15160,7 @@
       <c r="AN33" s="4"/>
       <c r="AO33" s="4"/>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:41">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -15198,7 +15203,7 @@
       <c r="AN34" s="4"/>
       <c r="AO34" s="4"/>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:41">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -15241,7 +15246,7 @@
       <c r="AN35" s="4"/>
       <c r="AO35" s="4"/>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:41">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -15284,7 +15289,7 @@
       <c r="AN36" s="4"/>
       <c r="AO36" s="4"/>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:41">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -15327,7 +15332,7 @@
       <c r="AN37" s="4"/>
       <c r="AO37" s="4"/>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:41">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -15370,7 +15375,7 @@
       <c r="AN38" s="4"/>
       <c r="AO38" s="4"/>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:41">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -15413,7 +15418,7 @@
       <c r="AN39" s="4"/>
       <c r="AO39" s="4"/>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:41">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -15456,7 +15461,7 @@
       <c r="AN40" s="4"/>
       <c r="AO40" s="4"/>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:41">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -15499,7 +15504,7 @@
       <c r="AN41" s="4"/>
       <c r="AO41" s="4"/>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:41">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -15542,7 +15547,7 @@
       <c r="AN42" s="4"/>
       <c r="AO42" s="4"/>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:41">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -15585,7 +15590,7 @@
       <c r="AN43" s="4"/>
       <c r="AO43" s="4"/>
     </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:41">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -15628,7 +15633,7 @@
       <c r="AN44" s="4"/>
       <c r="AO44" s="4"/>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:41">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -15671,7 +15676,7 @@
       <c r="AN45" s="4"/>
       <c r="AO45" s="4"/>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:41">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -15714,7 +15719,7 @@
       <c r="AN46" s="4"/>
       <c r="AO46" s="4"/>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:41">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -15757,7 +15762,7 @@
       <c r="AN47" s="4"/>
       <c r="AO47" s="4"/>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:41">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -15800,7 +15805,7 @@
       <c r="AN48" s="4"/>
       <c r="AO48" s="4"/>
     </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:41">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -15843,7 +15848,7 @@
       <c r="AN49" s="4"/>
       <c r="AO49" s="4"/>
     </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:41">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -15886,7 +15891,7 @@
       <c r="AN50" s="4"/>
       <c r="AO50" s="4"/>
     </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:41">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -15929,7 +15934,7 @@
       <c r="AN51" s="4"/>
       <c r="AO51" s="4"/>
     </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:41">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -15972,7 +15977,7 @@
       <c r="AN52" s="4"/>
       <c r="AO52" s="4"/>
     </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:41">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -16015,7 +16020,7 @@
       <c r="AN53" s="4"/>
       <c r="AO53" s="4"/>
     </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:41">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -16058,7 +16063,7 @@
       <c r="AN54" s="4"/>
       <c r="AO54" s="4"/>
     </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:41">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -16101,7 +16106,7 @@
       <c r="AN55" s="4"/>
       <c r="AO55" s="4"/>
     </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:41">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -16144,7 +16149,7 @@
       <c r="AN56" s="4"/>
       <c r="AO56" s="4"/>
     </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:41">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -16187,7 +16192,7 @@
       <c r="AN57" s="4"/>
       <c r="AO57" s="4"/>
     </row>
-    <row r="58" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:41">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -16230,7 +16235,7 @@
       <c r="AN58" s="4"/>
       <c r="AO58" s="4"/>
     </row>
-    <row r="59" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:41">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -16273,7 +16278,7 @@
       <c r="AN59" s="4"/>
       <c r="AO59" s="4"/>
     </row>
-    <row r="60" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:41">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -16316,7 +16321,7 @@
       <c r="AN60" s="4"/>
       <c r="AO60" s="4"/>
     </row>
-    <row r="61" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:41">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -16359,7 +16364,7 @@
       <c r="AN61" s="4"/>
       <c r="AO61" s="4"/>
     </row>
-    <row r="62" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:41">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -16402,7 +16407,7 @@
       <c r="AN62" s="4"/>
       <c r="AO62" s="4"/>
     </row>
-    <row r="63" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:41">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -16445,7 +16450,7 @@
       <c r="AN63" s="4"/>
       <c r="AO63" s="4"/>
     </row>
-    <row r="64" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:41">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -16488,7 +16493,7 @@
       <c r="AN64" s="4"/>
       <c r="AO64" s="4"/>
     </row>
-    <row r="65" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:41">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -16531,7 +16536,7 @@
       <c r="AN65" s="4"/>
       <c r="AO65" s="4"/>
     </row>
-    <row r="66" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:41">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -16574,7 +16579,7 @@
       <c r="AN66" s="4"/>
       <c r="AO66" s="4"/>
     </row>
-    <row r="67" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:41">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -16617,7 +16622,7 @@
       <c r="AN67" s="4"/>
       <c r="AO67" s="4"/>
     </row>
-    <row r="68" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:41">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -16660,7 +16665,7 @@
       <c r="AN68" s="4"/>
       <c r="AO68" s="4"/>
     </row>
-    <row r="69" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:41">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -16703,7 +16708,7 @@
       <c r="AN69" s="4"/>
       <c r="AO69" s="4"/>
     </row>
-    <row r="70" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:41">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -16746,7 +16751,7 @@
       <c r="AN70" s="4"/>
       <c r="AO70" s="4"/>
     </row>
-    <row r="71" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:41">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -16789,7 +16794,7 @@
       <c r="AN71" s="4"/>
       <c r="AO71" s="4"/>
     </row>
-    <row r="72" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:41">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -16832,7 +16837,7 @@
       <c r="AN72" s="4"/>
       <c r="AO72" s="4"/>
     </row>
-    <row r="73" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:41">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -16875,7 +16880,7 @@
       <c r="AN73" s="4"/>
       <c r="AO73" s="4"/>
     </row>
-    <row r="74" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:41">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -16918,7 +16923,7 @@
       <c r="AN74" s="4"/>
       <c r="AO74" s="4"/>
     </row>
-    <row r="75" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:41">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -16941,7 +16946,7 @@
       <c r="T75" s="4"/>
       <c r="U75" s="4"/>
     </row>
-    <row r="76" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:41">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -16964,7 +16969,7 @@
       <c r="T76" s="4"/>
       <c r="U76" s="4"/>
     </row>
-    <row r="77" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:41">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -16987,7 +16992,7 @@
       <c r="T77" s="4"/>
       <c r="U77" s="4"/>
     </row>
-    <row r="78" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:41">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -17010,7 +17015,7 @@
       <c r="T78" s="4"/>
       <c r="U78" s="4"/>
     </row>
-    <row r="79" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:41">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -17033,7 +17038,7 @@
       <c r="T79" s="4"/>
       <c r="U79" s="4"/>
     </row>
-    <row r="80" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:41">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -17056,7 +17061,7 @@
       <c r="T80" s="4"/>
       <c r="U80" s="4"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -17079,7 +17084,7 @@
       <c r="T81" s="4"/>
       <c r="U81" s="4"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -17102,7 +17107,7 @@
       <c r="T82" s="4"/>
       <c r="U82" s="4"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -17125,7 +17130,7 @@
       <c r="T83" s="4"/>
       <c r="U83" s="4"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -17148,7 +17153,7 @@
       <c r="T84" s="4"/>
       <c r="U84" s="4"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -17171,7 +17176,7 @@
       <c r="T85" s="4"/>
       <c r="U85" s="4"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -17194,7 +17199,7 @@
       <c r="T86" s="4"/>
       <c r="U86" s="4"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -17217,7 +17222,7 @@
       <c r="T87" s="4"/>
       <c r="U87" s="4"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -17240,7 +17245,7 @@
       <c r="T88" s="4"/>
       <c r="U88" s="4"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -17263,7 +17268,7 @@
       <c r="T89" s="4"/>
       <c r="U89" s="4"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -17286,7 +17291,7 @@
       <c r="T90" s="4"/>
       <c r="U90" s="4"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -17309,7 +17314,7 @@
       <c r="T91" s="4"/>
       <c r="U91" s="4"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -17332,7 +17337,7 @@
       <c r="T92" s="4"/>
       <c r="U92" s="4"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -17355,7 +17360,7 @@
       <c r="T93" s="4"/>
       <c r="U93" s="4"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -17378,7 +17383,7 @@
       <c r="T94" s="4"/>
       <c r="U94" s="4"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -17401,7 +17406,7 @@
       <c r="T95" s="4"/>
       <c r="U95" s="4"/>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -17424,7 +17429,7 @@
       <c r="T96" s="4"/>
       <c r="U96" s="4"/>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -17447,7 +17452,7 @@
       <c r="T97" s="4"/>
       <c r="U97" s="4"/>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -17470,7 +17475,7 @@
       <c r="T98" s="4"/>
       <c r="U98" s="4"/>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -17493,7 +17498,7 @@
       <c r="T99" s="4"/>
       <c r="U99" s="4"/>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -17516,7 +17521,7 @@
       <c r="T100" s="4"/>
       <c r="U100" s="4"/>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -17539,7 +17544,7 @@
       <c r="T101" s="4"/>
       <c r="U101" s="4"/>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -17562,7 +17567,7 @@
       <c r="T102" s="4"/>
       <c r="U102" s="4"/>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -17585,7 +17590,7 @@
       <c r="T103" s="4"/>
       <c r="U103" s="4"/>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -17608,7 +17613,7 @@
       <c r="T104" s="4"/>
       <c r="U104" s="4"/>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -17631,7 +17636,7 @@
       <c r="T105" s="4"/>
       <c r="U105" s="4"/>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -17654,7 +17659,7 @@
       <c r="T106" s="4"/>
       <c r="U106" s="4"/>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -17677,7 +17682,7 @@
       <c r="T107" s="4"/>
       <c r="U107" s="4"/>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -17700,7 +17705,7 @@
       <c r="T108" s="4"/>
       <c r="U108" s="4"/>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -17723,7 +17728,7 @@
       <c r="T109" s="4"/>
       <c r="U109" s="4"/>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -17746,7 +17751,7 @@
       <c r="T110" s="4"/>
       <c r="U110" s="4"/>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -17769,7 +17774,7 @@
       <c r="T111" s="4"/>
       <c r="U111" s="4"/>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -17792,7 +17797,7 @@
       <c r="T112" s="4"/>
       <c r="U112" s="4"/>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -17815,7 +17820,7 @@
       <c r="T113" s="4"/>
       <c r="U113" s="4"/>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -17838,7 +17843,7 @@
       <c r="T114" s="4"/>
       <c r="U114" s="4"/>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -17861,7 +17866,7 @@
       <c r="T115" s="4"/>
       <c r="U115" s="4"/>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -17884,7 +17889,7 @@
       <c r="T116" s="4"/>
       <c r="U116" s="4"/>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -17907,7 +17912,7 @@
       <c r="T117" s="4"/>
       <c r="U117" s="4"/>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -17930,7 +17935,7 @@
       <c r="T118" s="4"/>
       <c r="U118" s="4"/>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -17953,7 +17958,7 @@
       <c r="T119" s="4"/>
       <c r="U119" s="4"/>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -17976,7 +17981,7 @@
       <c r="T120" s="4"/>
       <c r="U120" s="4"/>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -17999,7 +18004,7 @@
       <c r="T121" s="4"/>
       <c r="U121" s="4"/>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -18022,7 +18027,7 @@
       <c r="T122" s="4"/>
       <c r="U122" s="4"/>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -18045,7 +18050,7 @@
       <c r="T123" s="4"/>
       <c r="U123" s="4"/>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -18068,7 +18073,7 @@
       <c r="T124" s="4"/>
       <c r="U124" s="4"/>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -18091,7 +18096,7 @@
       <c r="T125" s="4"/>
       <c r="U125" s="4"/>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -18114,7 +18119,7 @@
       <c r="T126" s="4"/>
       <c r="U126" s="4"/>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -18137,7 +18142,7 @@
       <c r="T127" s="4"/>
       <c r="U127" s="4"/>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -18160,7 +18165,7 @@
       <c r="T128" s="4"/>
       <c r="U128" s="4"/>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -18183,7 +18188,7 @@
       <c r="T129" s="4"/>
       <c r="U129" s="4"/>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -18206,7 +18211,7 @@
       <c r="T130" s="4"/>
       <c r="U130" s="4"/>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -18229,7 +18234,7 @@
       <c r="T131" s="4"/>
       <c r="U131" s="4"/>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -18252,7 +18257,7 @@
       <c r="T132" s="4"/>
       <c r="U132" s="4"/>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -18275,7 +18280,7 @@
       <c r="T133" s="4"/>
       <c r="U133" s="4"/>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -18298,7 +18303,7 @@
       <c r="T134" s="4"/>
       <c r="U134" s="4"/>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -18321,7 +18326,7 @@
       <c r="T135" s="4"/>
       <c r="U135" s="4"/>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -18344,7 +18349,7 @@
       <c r="T136" s="4"/>
       <c r="U136" s="4"/>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -18367,7 +18372,7 @@
       <c r="T137" s="4"/>
       <c r="U137" s="4"/>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -18390,7 +18395,7 @@
       <c r="T138" s="4"/>
       <c r="U138" s="4"/>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -18413,7 +18418,7 @@
       <c r="T139" s="4"/>
       <c r="U139" s="4"/>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -18436,7 +18441,7 @@
       <c r="T140" s="4"/>
       <c r="U140" s="4"/>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -18459,7 +18464,7 @@
       <c r="T141" s="4"/>
       <c r="U141" s="4"/>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -18482,7 +18487,7 @@
       <c r="T142" s="4"/>
       <c r="U142" s="4"/>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -18505,7 +18510,7 @@
       <c r="T143" s="4"/>
       <c r="U143" s="4"/>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -18528,7 +18533,7 @@
       <c r="T144" s="4"/>
       <c r="U144" s="4"/>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -18551,7 +18556,7 @@
       <c r="T145" s="4"/>
       <c r="U145" s="4"/>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -18574,7 +18579,7 @@
       <c r="T146" s="4"/>
       <c r="U146" s="4"/>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -18597,7 +18602,7 @@
       <c r="T147" s="4"/>
       <c r="U147" s="4"/>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -18620,7 +18625,7 @@
       <c r="T148" s="4"/>
       <c r="U148" s="4"/>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -18643,7 +18648,7 @@
       <c r="T149" s="4"/>
       <c r="U149" s="4"/>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -18666,7 +18671,7 @@
       <c r="T150" s="4"/>
       <c r="U150" s="4"/>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -18689,7 +18694,7 @@
       <c r="T151" s="4"/>
       <c r="U151" s="4"/>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:21">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -18712,7 +18717,7 @@
       <c r="T152" s="4"/>
       <c r="U152" s="4"/>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:21">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -18735,7 +18740,7 @@
       <c r="T153" s="4"/>
       <c r="U153" s="4"/>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:21">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -18758,7 +18763,7 @@
       <c r="T154" s="4"/>
       <c r="U154" s="4"/>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:21">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -18781,7 +18786,7 @@
       <c r="T155" s="4"/>
       <c r="U155" s="4"/>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:21">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -18804,7 +18809,7 @@
       <c r="T156" s="4"/>
       <c r="U156" s="4"/>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:21">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -18827,7 +18832,7 @@
       <c r="T157" s="4"/>
       <c r="U157" s="4"/>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:21">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -18850,7 +18855,7 @@
       <c r="T158" s="4"/>
       <c r="U158" s="4"/>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:21">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -18873,7 +18878,7 @@
       <c r="T159" s="4"/>
       <c r="U159" s="4"/>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:21">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -18896,7 +18901,7 @@
       <c r="T160" s="4"/>
       <c r="U160" s="4"/>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:21">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -18919,7 +18924,7 @@
       <c r="T161" s="4"/>
       <c r="U161" s="4"/>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:21">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -18942,7 +18947,7 @@
       <c r="T162" s="4"/>
       <c r="U162" s="4"/>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:21">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -18965,7 +18970,7 @@
       <c r="T163" s="4"/>
       <c r="U163" s="4"/>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:21">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -18988,7 +18993,7 @@
       <c r="T164" s="4"/>
       <c r="U164" s="4"/>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:21">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -19011,7 +19016,7 @@
       <c r="T165" s="4"/>
       <c r="U165" s="4"/>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:21">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -19034,7 +19039,7 @@
       <c r="T166" s="4"/>
       <c r="U166" s="4"/>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:21">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -19057,7 +19062,7 @@
       <c r="T167" s="4"/>
       <c r="U167" s="4"/>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:21">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -19080,7 +19085,7 @@
       <c r="T168" s="4"/>
       <c r="U168" s="4"/>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:21">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -19103,7 +19108,7 @@
       <c r="T169" s="4"/>
       <c r="U169" s="4"/>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:21">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -19126,7 +19131,7 @@
       <c r="T170" s="4"/>
       <c r="U170" s="4"/>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:21">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -19149,7 +19154,7 @@
       <c r="T171" s="4"/>
       <c r="U171" s="4"/>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:21">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -19172,7 +19177,7 @@
       <c r="T172" s="4"/>
       <c r="U172" s="4"/>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:21">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -19195,7 +19200,7 @@
       <c r="T173" s="4"/>
       <c r="U173" s="4"/>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:21">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -19218,7 +19223,7 @@
       <c r="T174" s="4"/>
       <c r="U174" s="4"/>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:21">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -19241,7 +19246,7 @@
       <c r="T175" s="4"/>
       <c r="U175" s="4"/>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:21">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -19264,7 +19269,7 @@
       <c r="T176" s="4"/>
       <c r="U176" s="4"/>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:21">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -19287,7 +19292,7 @@
       <c r="T177" s="4"/>
       <c r="U177" s="4"/>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:21">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -19310,7 +19315,7 @@
       <c r="T178" s="4"/>
       <c r="U178" s="4"/>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:21">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -19333,7 +19338,7 @@
       <c r="T179" s="4"/>
       <c r="U179" s="4"/>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:21">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -19356,7 +19361,7 @@
       <c r="T180" s="4"/>
       <c r="U180" s="4"/>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:21">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -19379,7 +19384,7 @@
       <c r="T181" s="4"/>
       <c r="U181" s="4"/>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:21">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -19402,7 +19407,7 @@
       <c r="T182" s="4"/>
       <c r="U182" s="4"/>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:21">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -19425,7 +19430,7 @@
       <c r="T183" s="4"/>
       <c r="U183" s="4"/>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:21">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -19448,7 +19453,7 @@
       <c r="T184" s="4"/>
       <c r="U184" s="4"/>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:21">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -19471,7 +19476,7 @@
       <c r="T185" s="4"/>
       <c r="U185" s="4"/>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:21">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -19494,7 +19499,7 @@
       <c r="T186" s="4"/>
       <c r="U186" s="4"/>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:21">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -19517,7 +19522,7 @@
       <c r="T187" s="4"/>
       <c r="U187" s="4"/>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:21">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -19540,7 +19545,7 @@
       <c r="T188" s="4"/>
       <c r="U188" s="4"/>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:21">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -19563,7 +19568,7 @@
       <c r="T189" s="4"/>
       <c r="U189" s="4"/>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:21">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -19586,7 +19591,7 @@
       <c r="T190" s="4"/>
       <c r="U190" s="4"/>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:21">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -19609,7 +19614,7 @@
       <c r="T191" s="4"/>
       <c r="U191" s="4"/>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:21">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -19632,7 +19637,7 @@
       <c r="T192" s="4"/>
       <c r="U192" s="4"/>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:21">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -19655,7 +19660,7 @@
       <c r="T193" s="4"/>
       <c r="U193" s="4"/>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:21">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -19678,7 +19683,7 @@
       <c r="T194" s="4"/>
       <c r="U194" s="4"/>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:21">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -19701,7 +19706,7 @@
       <c r="T195" s="4"/>
       <c r="U195" s="4"/>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:21">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -19724,7 +19729,7 @@
       <c r="T196" s="4"/>
       <c r="U196" s="4"/>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:21">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -19747,7 +19752,7 @@
       <c r="T197" s="4"/>
       <c r="U197" s="4"/>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:21">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -19770,7 +19775,7 @@
       <c r="T198" s="4"/>
       <c r="U198" s="4"/>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:21">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -19793,7 +19798,7 @@
       <c r="T199" s="4"/>
       <c r="U199" s="4"/>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:21">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -19816,7 +19821,7 @@
       <c r="T200" s="4"/>
       <c r="U200" s="4"/>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:21">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -19839,7 +19844,7 @@
       <c r="T201" s="4"/>
       <c r="U201" s="4"/>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:21">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -19862,7 +19867,7 @@
       <c r="T202" s="4"/>
       <c r="U202" s="4"/>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:21">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -19885,7 +19890,7 @@
       <c r="T203" s="4"/>
       <c r="U203" s="4"/>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:21">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -19908,7 +19913,7 @@
       <c r="T204" s="4"/>
       <c r="U204" s="4"/>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:21">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -19931,7 +19936,7 @@
       <c r="T205" s="4"/>
       <c r="U205" s="4"/>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:21">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -19954,7 +19959,7 @@
       <c r="T206" s="4"/>
       <c r="U206" s="4"/>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:21">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -19977,7 +19982,7 @@
       <c r="T207" s="4"/>
       <c r="U207" s="4"/>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:21">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -20000,7 +20005,7 @@
       <c r="T208" s="4"/>
       <c r="U208" s="4"/>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:21">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -20023,7 +20028,7 @@
       <c r="T209" s="4"/>
       <c r="U209" s="4"/>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:21">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -20046,7 +20051,7 @@
       <c r="T210" s="4"/>
       <c r="U210" s="4"/>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:21">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -20069,7 +20074,7 @@
       <c r="T211" s="4"/>
       <c r="U211" s="4"/>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:21">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -20092,7 +20097,7 @@
       <c r="T212" s="4"/>
       <c r="U212" s="4"/>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:21">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -20115,7 +20120,7 @@
       <c r="T213" s="4"/>
       <c r="U213" s="4"/>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:21">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -20138,7 +20143,7 @@
       <c r="T214" s="4"/>
       <c r="U214" s="4"/>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:21">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -20161,7 +20166,7 @@
       <c r="T215" s="4"/>
       <c r="U215" s="4"/>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:21">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -20184,7 +20189,7 @@
       <c r="T216" s="4"/>
       <c r="U216" s="4"/>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:21">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -20207,7 +20212,7 @@
       <c r="T217" s="4"/>
       <c r="U217" s="4"/>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:21">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -20230,7 +20235,7 @@
       <c r="T218" s="4"/>
       <c r="U218" s="4"/>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:21">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -20253,7 +20258,7 @@
       <c r="T219" s="4"/>
       <c r="U219" s="4"/>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:21">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -20276,7 +20281,7 @@
       <c r="T220" s="4"/>
       <c r="U220" s="4"/>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:21">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
@@ -20299,7 +20304,7 @@
       <c r="T221" s="4"/>
       <c r="U221" s="4"/>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:21">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -20322,7 +20327,7 @@
       <c r="T222" s="4"/>
       <c r="U222" s="4"/>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:21">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -20345,7 +20350,7 @@
       <c r="T223" s="4"/>
       <c r="U223" s="4"/>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:21">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
@@ -20368,7 +20373,7 @@
       <c r="T224" s="4"/>
       <c r="U224" s="4"/>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:21">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -20391,7 +20396,7 @@
       <c r="T225" s="4"/>
       <c r="U225" s="4"/>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:21">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -20414,7 +20419,7 @@
       <c r="T226" s="4"/>
       <c r="U226" s="4"/>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:21">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -20437,7 +20442,7 @@
       <c r="T227" s="4"/>
       <c r="U227" s="4"/>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:21">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
@@ -20460,7 +20465,7 @@
       <c r="T228" s="4"/>
       <c r="U228" s="4"/>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:21">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
@@ -20483,7 +20488,7 @@
       <c r="T229" s="4"/>
       <c r="U229" s="4"/>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:21">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -20506,7 +20511,7 @@
       <c r="T230" s="4"/>
       <c r="U230" s="4"/>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:21">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
@@ -20529,7 +20534,7 @@
       <c r="T231" s="4"/>
       <c r="U231" s="4"/>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:21">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
@@ -20552,7 +20557,7 @@
       <c r="T232" s="4"/>
       <c r="U232" s="4"/>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:21">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
@@ -20575,7 +20580,7 @@
       <c r="T233" s="4"/>
       <c r="U233" s="4"/>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:21">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
@@ -20598,7 +20603,7 @@
       <c r="T234" s="4"/>
       <c r="U234" s="4"/>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:21">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
@@ -20621,7 +20626,7 @@
       <c r="T235" s="4"/>
       <c r="U235" s="4"/>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:21">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
@@ -20644,7 +20649,7 @@
       <c r="T236" s="4"/>
       <c r="U236" s="4"/>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:21">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -20667,7 +20672,7 @@
       <c r="T237" s="4"/>
       <c r="U237" s="4"/>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:21">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
@@ -20690,7 +20695,7 @@
       <c r="T238" s="4"/>
       <c r="U238" s="4"/>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:21">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
@@ -20713,7 +20718,7 @@
       <c r="T239" s="4"/>
       <c r="U239" s="4"/>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:21">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
@@ -20736,7 +20741,7 @@
       <c r="T240" s="4"/>
       <c r="U240" s="4"/>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:21">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
@@ -20759,7 +20764,7 @@
       <c r="T241" s="4"/>
       <c r="U241" s="4"/>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:21">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
@@ -20782,7 +20787,7 @@
       <c r="T242" s="4"/>
       <c r="U242" s="4"/>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:21">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
@@ -20805,7 +20810,7 @@
       <c r="T243" s="4"/>
       <c r="U243" s="4"/>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:21">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
@@ -20828,7 +20833,7 @@
       <c r="T244" s="4"/>
       <c r="U244" s="4"/>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:21">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -20851,7 +20856,7 @@
       <c r="T245" s="4"/>
       <c r="U245" s="4"/>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:21">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -20874,7 +20879,7 @@
       <c r="T246" s="4"/>
       <c r="U246" s="4"/>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:21">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -20897,7 +20902,7 @@
       <c r="T247" s="4"/>
       <c r="U247" s="4"/>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:21">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
@@ -20920,7 +20925,7 @@
       <c r="T248" s="4"/>
       <c r="U248" s="4"/>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:21">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -20943,7 +20948,7 @@
       <c r="T249" s="4"/>
       <c r="U249" s="4"/>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:21">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
@@ -20966,7 +20971,7 @@
       <c r="T250" s="4"/>
       <c r="U250" s="4"/>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:21">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
@@ -20989,7 +20994,7 @@
       <c r="T251" s="4"/>
       <c r="U251" s="4"/>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:21">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -21012,7 +21017,7 @@
       <c r="T252" s="4"/>
       <c r="U252" s="4"/>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:21">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
@@ -21035,7 +21040,7 @@
       <c r="T253" s="4"/>
       <c r="U253" s="4"/>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:21">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
@@ -21058,7 +21063,7 @@
       <c r="T254" s="4"/>
       <c r="U254" s="4"/>
     </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:21">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
@@ -21081,7 +21086,7 @@
       <c r="T255" s="4"/>
       <c r="U255" s="4"/>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:21">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
@@ -21104,7 +21109,7 @@
       <c r="T256" s="4"/>
       <c r="U256" s="4"/>
     </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:21">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
@@ -21127,7 +21132,7 @@
       <c r="T257" s="4"/>
       <c r="U257" s="4"/>
     </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:21">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
@@ -21150,7 +21155,7 @@
       <c r="T258" s="4"/>
       <c r="U258" s="4"/>
     </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:21">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
@@ -21173,7 +21178,7 @@
       <c r="T259" s="4"/>
       <c r="U259" s="4"/>
     </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:21">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
@@ -21196,7 +21201,7 @@
       <c r="T260" s="4"/>
       <c r="U260" s="4"/>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:21">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
@@ -21219,7 +21224,7 @@
       <c r="T261" s="4"/>
       <c r="U261" s="4"/>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:21">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
@@ -21242,7 +21247,7 @@
       <c r="T262" s="4"/>
       <c r="U262" s="4"/>
     </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:21">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
@@ -21265,7 +21270,7 @@
       <c r="T263" s="4"/>
       <c r="U263" s="4"/>
     </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:21">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
@@ -21288,7 +21293,7 @@
       <c r="T264" s="4"/>
       <c r="U264" s="4"/>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:21">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
@@ -21311,7 +21316,7 @@
       <c r="T265" s="4"/>
       <c r="U265" s="4"/>
     </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:21">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
@@ -21334,7 +21339,7 @@
       <c r="T266" s="4"/>
       <c r="U266" s="4"/>
     </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:21">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
@@ -21357,7 +21362,7 @@
       <c r="T267" s="4"/>
       <c r="U267" s="4"/>
     </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:21">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
@@ -21380,7 +21385,7 @@
       <c r="T268" s="4"/>
       <c r="U268" s="4"/>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:21">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
@@ -21403,7 +21408,7 @@
       <c r="T269" s="4"/>
       <c r="U269" s="4"/>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:21">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
@@ -21426,7 +21431,7 @@
       <c r="T270" s="4"/>
       <c r="U270" s="4"/>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:21">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
@@ -21449,7 +21454,7 @@
       <c r="T271" s="4"/>
       <c r="U271" s="4"/>
     </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:21">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
@@ -21472,7 +21477,7 @@
       <c r="T272" s="4"/>
       <c r="U272" s="4"/>
     </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:21">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
@@ -21495,7 +21500,7 @@
       <c r="T273" s="4"/>
       <c r="U273" s="4"/>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:21">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
@@ -21518,7 +21523,7 @@
       <c r="T274" s="4"/>
       <c r="U274" s="4"/>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:21">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
@@ -21541,7 +21546,7 @@
       <c r="T275" s="4"/>
       <c r="U275" s="4"/>
     </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:21">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
@@ -21564,7 +21569,7 @@
       <c r="T276" s="4"/>
       <c r="U276" s="4"/>
     </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:21">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
@@ -21587,7 +21592,7 @@
       <c r="T277" s="4"/>
       <c r="U277" s="4"/>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:21">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
@@ -21610,7 +21615,7 @@
       <c r="T278" s="4"/>
       <c r="U278" s="4"/>
     </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:21">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
@@ -21633,7 +21638,7 @@
       <c r="T279" s="4"/>
       <c r="U279" s="4"/>
     </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:21">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
@@ -21656,7 +21661,7 @@
       <c r="T280" s="4"/>
       <c r="U280" s="4"/>
     </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:21">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
@@ -21679,7 +21684,7 @@
       <c r="T281" s="4"/>
       <c r="U281" s="4"/>
     </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:21">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
@@ -21702,7 +21707,7 @@
       <c r="T282" s="4"/>
       <c r="U282" s="4"/>
     </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:21">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
@@ -21725,7 +21730,7 @@
       <c r="T283" s="4"/>
       <c r="U283" s="4"/>
     </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:21">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
@@ -21748,7 +21753,7 @@
       <c r="T284" s="4"/>
       <c r="U284" s="4"/>
     </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:21">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
@@ -21771,7 +21776,7 @@
       <c r="T285" s="4"/>
       <c r="U285" s="4"/>
     </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:21">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
@@ -21794,7 +21799,7 @@
       <c r="T286" s="4"/>
       <c r="U286" s="4"/>
     </row>
-    <row r="287" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:21">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
@@ -21817,7 +21822,7 @@
       <c r="T287" s="4"/>
       <c r="U287" s="4"/>
     </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:21">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
@@ -21840,7 +21845,7 @@
       <c r="T288" s="4"/>
       <c r="U288" s="4"/>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:21">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
@@ -21863,7 +21868,7 @@
       <c r="T289" s="4"/>
       <c r="U289" s="4"/>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:21">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
@@ -21886,7 +21891,7 @@
       <c r="T290" s="4"/>
       <c r="U290" s="4"/>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:21">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
@@ -21909,7 +21914,7 @@
       <c r="T291" s="4"/>
       <c r="U291" s="4"/>
     </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:21">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
@@ -21932,7 +21937,7 @@
       <c r="T292" s="4"/>
       <c r="U292" s="4"/>
     </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:21">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
@@ -21955,7 +21960,7 @@
       <c r="T293" s="4"/>
       <c r="U293" s="4"/>
     </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:21">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
@@ -21978,7 +21983,7 @@
       <c r="T294" s="4"/>
       <c r="U294" s="4"/>
     </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:21">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
@@ -22001,7 +22006,7 @@
       <c r="T295" s="4"/>
       <c r="U295" s="4"/>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:21">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
@@ -22024,7 +22029,7 @@
       <c r="T296" s="4"/>
       <c r="U296" s="4"/>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:21">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
@@ -22047,7 +22052,7 @@
       <c r="T297" s="4"/>
       <c r="U297" s="4"/>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:21">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
@@ -22070,7 +22075,7 @@
       <c r="T298" s="4"/>
       <c r="U298" s="4"/>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:21">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
@@ -22093,7 +22098,7 @@
       <c r="T299" s="4"/>
       <c r="U299" s="4"/>
     </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:21">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
@@ -22116,7 +22121,7 @@
       <c r="T300" s="4"/>
       <c r="U300" s="4"/>
     </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:21">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
@@ -22139,7 +22144,7 @@
       <c r="T301" s="4"/>
       <c r="U301" s="4"/>
     </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:21">
       <c r="A302" s="4"/>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
@@ -22162,7 +22167,7 @@
       <c r="T302" s="4"/>
       <c r="U302" s="4"/>
     </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:21">
       <c r="A303" s="4"/>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
@@ -22185,7 +22190,7 @@
       <c r="T303" s="4"/>
       <c r="U303" s="4"/>
     </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:21">
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
@@ -22208,7 +22213,7 @@
       <c r="T304" s="4"/>
       <c r="U304" s="4"/>
     </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:21">
       <c r="A305" s="4"/>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
@@ -22231,7 +22236,7 @@
       <c r="T305" s="4"/>
       <c r="U305" s="4"/>
     </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:21">
       <c r="A306" s="4"/>
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
@@ -22254,7 +22259,7 @@
       <c r="T306" s="4"/>
       <c r="U306" s="4"/>
     </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:21">
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
@@ -22277,7 +22282,7 @@
       <c r="T307" s="4"/>
       <c r="U307" s="4"/>
     </row>
-    <row r="308" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:21">
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
@@ -22300,7 +22305,7 @@
       <c r="T308" s="4"/>
       <c r="U308" s="4"/>
     </row>
-    <row r="309" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:21">
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
@@ -22323,7 +22328,7 @@
       <c r="T309" s="4"/>
       <c r="U309" s="4"/>
     </row>
-    <row r="310" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:21">
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
@@ -22346,7 +22351,7 @@
       <c r="T310" s="4"/>
       <c r="U310" s="4"/>
     </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:21">
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
@@ -22369,7 +22374,7 @@
       <c r="T311" s="4"/>
       <c r="U311" s="4"/>
     </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:21">
       <c r="A312" s="4"/>
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
@@ -22392,7 +22397,7 @@
       <c r="T312" s="4"/>
       <c r="U312" s="4"/>
     </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:21">
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
@@ -22415,7 +22420,7 @@
       <c r="T313" s="4"/>
       <c r="U313" s="4"/>
     </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:21">
       <c r="A314" s="4"/>
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
@@ -22438,7 +22443,7 @@
       <c r="T314" s="4"/>
       <c r="U314" s="4"/>
     </row>
-    <row r="315" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:21">
       <c r="A315" s="4"/>
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
@@ -22461,7 +22466,7 @@
       <c r="T315" s="4"/>
       <c r="U315" s="4"/>
     </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:21">
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
@@ -22484,7 +22489,7 @@
       <c r="T316" s="4"/>
       <c r="U316" s="4"/>
     </row>
-    <row r="317" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:21">
       <c r="A317" s="4"/>
       <c r="B317" s="4"/>
       <c r="C317" s="4"/>
@@ -22507,7 +22512,7 @@
       <c r="T317" s="4"/>
       <c r="U317" s="4"/>
     </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:21">
       <c r="A318" s="4"/>
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
@@ -22530,7 +22535,7 @@
       <c r="T318" s="4"/>
       <c r="U318" s="4"/>
     </row>
-    <row r="319" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:21">
       <c r="A319" s="4"/>
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
@@ -22553,7 +22558,7 @@
       <c r="T319" s="4"/>
       <c r="U319" s="4"/>
     </row>
-    <row r="320" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:21">
       <c r="A320" s="4"/>
       <c r="B320" s="4"/>
       <c r="C320" s="4"/>
@@ -22576,7 +22581,7 @@
       <c r="T320" s="4"/>
       <c r="U320" s="4"/>
     </row>
-    <row r="321" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:21">
       <c r="A321" s="4"/>
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
@@ -22599,7 +22604,7 @@
       <c r="T321" s="4"/>
       <c r="U321" s="4"/>
     </row>
-    <row r="322" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:21">
       <c r="A322" s="4"/>
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
@@ -22622,7 +22627,7 @@
       <c r="T322" s="4"/>
       <c r="U322" s="4"/>
     </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:21">
       <c r="A323" s="4"/>
       <c r="B323" s="4"/>
       <c r="C323" s="4"/>
@@ -22645,7 +22650,7 @@
       <c r="T323" s="4"/>
       <c r="U323" s="4"/>
     </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:21">
       <c r="A324" s="4"/>
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
@@ -22668,7 +22673,7 @@
       <c r="T324" s="4"/>
       <c r="U324" s="4"/>
     </row>
-    <row r="325" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:21">
       <c r="A325" s="4"/>
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
@@ -22691,7 +22696,7 @@
       <c r="T325" s="4"/>
       <c r="U325" s="4"/>
     </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:21">
       <c r="A326" s="4"/>
       <c r="B326" s="4"/>
       <c r="C326" s="4"/>
@@ -22714,7 +22719,7 @@
       <c r="T326" s="4"/>
       <c r="U326" s="4"/>
     </row>
-    <row r="327" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:21">
       <c r="A327" s="4"/>
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
@@ -22737,7 +22742,7 @@
       <c r="T327" s="4"/>
       <c r="U327" s="4"/>
     </row>
-    <row r="328" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:21">
       <c r="A328" s="4"/>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
@@ -22760,7 +22765,7 @@
       <c r="T328" s="4"/>
       <c r="U328" s="4"/>
     </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:21">
       <c r="A329" s="4"/>
       <c r="B329" s="4"/>
       <c r="C329" s="4"/>
@@ -22783,7 +22788,7 @@
       <c r="T329" s="4"/>
       <c r="U329" s="4"/>
     </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:21">
       <c r="A330" s="4"/>
       <c r="B330" s="4"/>
       <c r="C330" s="4"/>
@@ -22806,7 +22811,7 @@
       <c r="T330" s="4"/>
       <c r="U330" s="4"/>
     </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:21">
       <c r="A331" s="4"/>
       <c r="B331" s="4"/>
       <c r="C331" s="4"/>
@@ -22829,7 +22834,7 @@
       <c r="T331" s="4"/>
       <c r="U331" s="4"/>
     </row>
-    <row r="332" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:21">
       <c r="A332" s="4"/>
       <c r="B332" s="4"/>
       <c r="C332" s="4"/>
@@ -22852,7 +22857,7 @@
       <c r="T332" s="4"/>
       <c r="U332" s="4"/>
     </row>
-    <row r="333" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:21">
       <c r="A333" s="4"/>
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
@@ -22875,7 +22880,7 @@
       <c r="T333" s="4"/>
       <c r="U333" s="4"/>
     </row>
-    <row r="334" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:21">
       <c r="A334" s="4"/>
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
@@ -22898,7 +22903,7 @@
       <c r="T334" s="4"/>
       <c r="U334" s="4"/>
     </row>
-    <row r="335" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:21">
       <c r="A335" s="4"/>
       <c r="B335" s="4"/>
       <c r="C335" s="4"/>
@@ -22921,7 +22926,7 @@
       <c r="T335" s="4"/>
       <c r="U335" s="4"/>
     </row>
-    <row r="336" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:21">
       <c r="A336" s="4"/>
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
@@ -22944,7 +22949,7 @@
       <c r="T336" s="4"/>
       <c r="U336" s="4"/>
     </row>
-    <row r="337" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:21">
       <c r="A337" s="4"/>
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
@@ -22967,7 +22972,7 @@
       <c r="T337" s="4"/>
       <c r="U337" s="4"/>
     </row>
-    <row r="338" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:21">
       <c r="A338" s="4"/>
       <c r="B338" s="4"/>
       <c r="C338" s="4"/>
@@ -22990,7 +22995,7 @@
       <c r="T338" s="4"/>
       <c r="U338" s="4"/>
     </row>
-    <row r="339" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:21">
       <c r="A339" s="4"/>
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
@@ -23013,7 +23018,7 @@
       <c r="T339" s="4"/>
       <c r="U339" s="4"/>
     </row>
-    <row r="340" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:21">
       <c r="A340" s="4"/>
       <c r="B340" s="4"/>
       <c r="C340" s="4"/>
@@ -23036,7 +23041,7 @@
       <c r="T340" s="4"/>
       <c r="U340" s="4"/>
     </row>
-    <row r="341" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:21">
       <c r="A341" s="4"/>
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
@@ -23059,7 +23064,7 @@
       <c r="T341" s="4"/>
       <c r="U341" s="4"/>
     </row>
-    <row r="342" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:21">
       <c r="A342" s="4"/>
       <c r="B342" s="4"/>
       <c r="C342" s="4"/>
@@ -23082,7 +23087,7 @@
       <c r="T342" s="4"/>
       <c r="U342" s="4"/>
     </row>
-    <row r="343" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:21">
       <c r="A343" s="4"/>
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
@@ -23105,7 +23110,7 @@
       <c r="T343" s="4"/>
       <c r="U343" s="4"/>
     </row>
-    <row r="344" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:21">
       <c r="A344" s="4"/>
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
@@ -23128,7 +23133,7 @@
       <c r="T344" s="4"/>
       <c r="U344" s="4"/>
     </row>
-    <row r="345" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:21">
       <c r="A345" s="4"/>
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
@@ -23151,7 +23156,7 @@
       <c r="T345" s="4"/>
       <c r="U345" s="4"/>
     </row>
-    <row r="346" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:21">
       <c r="A346" s="4"/>
       <c r="B346" s="4"/>
       <c r="C346" s="4"/>
@@ -23174,7 +23179,7 @@
       <c r="T346" s="4"/>
       <c r="U346" s="4"/>
     </row>
-    <row r="347" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:21">
       <c r="A347" s="4"/>
       <c r="B347" s="4"/>
       <c r="C347" s="4"/>
@@ -23197,7 +23202,7 @@
       <c r="T347" s="4"/>
       <c r="U347" s="4"/>
     </row>
-    <row r="348" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:21">
       <c r="A348" s="4"/>
       <c r="B348" s="4"/>
       <c r="C348" s="4"/>
@@ -23220,7 +23225,7 @@
       <c r="T348" s="4"/>
       <c r="U348" s="4"/>
     </row>
-    <row r="349" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:21">
       <c r="A349" s="4"/>
       <c r="B349" s="4"/>
       <c r="C349" s="4"/>
@@ -23243,7 +23248,7 @@
       <c r="T349" s="4"/>
       <c r="U349" s="4"/>
     </row>
-    <row r="350" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:21">
       <c r="A350" s="4"/>
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
@@ -23266,7 +23271,7 @@
       <c r="T350" s="4"/>
       <c r="U350" s="4"/>
     </row>
-    <row r="351" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:21">
       <c r="A351" s="4"/>
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
@@ -23289,7 +23294,7 @@
       <c r="T351" s="4"/>
       <c r="U351" s="4"/>
     </row>
-    <row r="352" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:21">
       <c r="A352" s="4"/>
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
@@ -23312,7 +23317,7 @@
       <c r="T352" s="4"/>
       <c r="U352" s="4"/>
     </row>
-    <row r="353" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:21">
       <c r="A353" s="4"/>
       <c r="B353" s="4"/>
       <c r="C353" s="4"/>
@@ -23335,7 +23340,7 @@
       <c r="T353" s="4"/>
       <c r="U353" s="4"/>
     </row>
-    <row r="354" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:21">
       <c r="A354" s="4"/>
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
@@ -23358,7 +23363,7 @@
       <c r="T354" s="4"/>
       <c r="U354" s="4"/>
     </row>
-    <row r="355" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:21">
       <c r="A355" s="4"/>
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
@@ -23381,7 +23386,7 @@
       <c r="T355" s="4"/>
       <c r="U355" s="4"/>
     </row>
-    <row r="356" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:21">
       <c r="A356" s="4"/>
       <c r="B356" s="4"/>
       <c r="C356" s="4"/>
@@ -23404,7 +23409,7 @@
       <c r="T356" s="4"/>
       <c r="U356" s="4"/>
     </row>
-    <row r="357" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:21">
       <c r="A357" s="4"/>
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
@@ -23427,7 +23432,7 @@
       <c r="T357" s="4"/>
       <c r="U357" s="4"/>
     </row>
-    <row r="358" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:21">
       <c r="A358" s="4"/>
       <c r="B358" s="4"/>
       <c r="C358" s="4"/>
@@ -23450,7 +23455,7 @@
       <c r="T358" s="4"/>
       <c r="U358" s="4"/>
     </row>
-    <row r="359" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:21">
       <c r="A359" s="4"/>
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
@@ -23473,7 +23478,7 @@
       <c r="T359" s="4"/>
       <c r="U359" s="4"/>
     </row>
-    <row r="360" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:21">
       <c r="A360" s="4"/>
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
@@ -23496,7 +23501,7 @@
       <c r="T360" s="4"/>
       <c r="U360" s="4"/>
     </row>
-    <row r="361" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:21">
       <c r="A361" s="4"/>
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
@@ -23519,7 +23524,7 @@
       <c r="T361" s="4"/>
       <c r="U361" s="4"/>
     </row>
-    <row r="362" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:21">
       <c r="A362" s="4"/>
       <c r="B362" s="4"/>
       <c r="C362" s="4"/>
@@ -23542,7 +23547,7 @@
       <c r="T362" s="4"/>
       <c r="U362" s="4"/>
     </row>
-    <row r="363" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:21">
       <c r="A363" s="4"/>
       <c r="B363" s="4"/>
       <c r="C363" s="4"/>
@@ -23565,7 +23570,7 @@
       <c r="T363" s="4"/>
       <c r="U363" s="4"/>
     </row>
-    <row r="364" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:21">
       <c r="A364" s="4"/>
       <c r="B364" s="4"/>
       <c r="C364" s="4"/>
@@ -23588,7 +23593,7 @@
       <c r="T364" s="4"/>
       <c r="U364" s="4"/>
     </row>
-    <row r="365" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:21">
       <c r="A365" s="4"/>
       <c r="B365" s="4"/>
       <c r="C365" s="4"/>
@@ -23611,7 +23616,7 @@
       <c r="T365" s="4"/>
       <c r="U365" s="4"/>
     </row>
-    <row r="366" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:21">
       <c r="A366" s="4"/>
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
@@ -23634,7 +23639,7 @@
       <c r="T366" s="4"/>
       <c r="U366" s="4"/>
     </row>
-    <row r="367" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:21">
       <c r="A367" s="4"/>
       <c r="B367" s="4"/>
       <c r="C367" s="4"/>
@@ -23657,7 +23662,7 @@
       <c r="T367" s="4"/>
       <c r="U367" s="4"/>
     </row>
-    <row r="368" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:21">
       <c r="A368" s="4"/>
       <c r="B368" s="4"/>
       <c r="C368" s="4"/>
@@ -23680,7 +23685,7 @@
       <c r="T368" s="4"/>
       <c r="U368" s="4"/>
     </row>
-    <row r="369" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:21">
       <c r="A369" s="4"/>
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
@@ -23703,7 +23708,7 @@
       <c r="T369" s="4"/>
       <c r="U369" s="4"/>
     </row>
-    <row r="370" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:21">
       <c r="A370" s="4"/>
       <c r="B370" s="4"/>
       <c r="C370" s="4"/>
@@ -23726,7 +23731,7 @@
       <c r="T370" s="4"/>
       <c r="U370" s="4"/>
     </row>
-    <row r="371" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:21">
       <c r="A371" s="4"/>
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
@@ -23749,7 +23754,7 @@
       <c r="T371" s="4"/>
       <c r="U371" s="4"/>
     </row>
-    <row r="372" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:21">
       <c r="A372" s="4"/>
       <c r="B372" s="4"/>
       <c r="C372" s="4"/>
@@ -23772,7 +23777,7 @@
       <c r="T372" s="4"/>
       <c r="U372" s="4"/>
     </row>
-    <row r="373" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:21">
       <c r="A373" s="4"/>
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
@@ -23795,7 +23800,7 @@
       <c r="T373" s="4"/>
       <c r="U373" s="4"/>
     </row>
-    <row r="374" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:21">
       <c r="A374" s="4"/>
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
@@ -23818,7 +23823,7 @@
       <c r="T374" s="4"/>
       <c r="U374" s="4"/>
     </row>
-    <row r="375" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:21">
       <c r="A375" s="4"/>
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
@@ -23841,7 +23846,7 @@
       <c r="T375" s="4"/>
       <c r="U375" s="4"/>
     </row>
-    <row r="376" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:21">
       <c r="A376" s="4"/>
       <c r="B376" s="4"/>
       <c r="C376" s="4"/>
@@ -23864,7 +23869,7 @@
       <c r="T376" s="4"/>
       <c r="U376" s="4"/>
     </row>
-    <row r="377" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:21">
       <c r="A377" s="4"/>
       <c r="B377" s="4"/>
       <c r="C377" s="4"/>
@@ -23887,7 +23892,7 @@
       <c r="T377" s="4"/>
       <c r="U377" s="4"/>
     </row>
-    <row r="378" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:21">
       <c r="A378" s="4"/>
       <c r="B378" s="4"/>
       <c r="C378" s="4"/>
@@ -23910,7 +23915,7 @@
       <c r="T378" s="4"/>
       <c r="U378" s="4"/>
     </row>
-    <row r="379" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:21">
       <c r="A379" s="4"/>
       <c r="B379" s="4"/>
       <c r="C379" s="4"/>
@@ -23933,7 +23938,7 @@
       <c r="T379" s="4"/>
       <c r="U379" s="4"/>
     </row>
-    <row r="380" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:21">
       <c r="A380" s="4"/>
       <c r="B380" s="4"/>
       <c r="C380" s="4"/>
@@ -23956,7 +23961,7 @@
       <c r="T380" s="4"/>
       <c r="U380" s="4"/>
     </row>
-    <row r="381" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:21">
       <c r="A381" s="4"/>
       <c r="B381" s="4"/>
       <c r="C381" s="4"/>
@@ -23979,7 +23984,7 @@
       <c r="T381" s="4"/>
       <c r="U381" s="4"/>
     </row>
-    <row r="382" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:21">
       <c r="A382" s="4"/>
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
@@ -24002,7 +24007,7 @@
       <c r="T382" s="4"/>
       <c r="U382" s="4"/>
     </row>
-    <row r="383" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:21">
       <c r="A383" s="4"/>
       <c r="B383" s="4"/>
       <c r="C383" s="4"/>
@@ -24025,7 +24030,7 @@
       <c r="T383" s="4"/>
       <c r="U383" s="4"/>
     </row>
-    <row r="384" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:21">
       <c r="A384" s="4"/>
       <c r="B384" s="4"/>
       <c r="C384" s="4"/>
@@ -24048,7 +24053,7 @@
       <c r="T384" s="4"/>
       <c r="U384" s="4"/>
     </row>
-    <row r="385" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:21">
       <c r="A385" s="4"/>
       <c r="B385" s="4"/>
       <c r="C385" s="4"/>
@@ -24071,7 +24076,7 @@
       <c r="T385" s="4"/>
       <c r="U385" s="4"/>
     </row>
-    <row r="386" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:21">
       <c r="A386" s="4"/>
       <c r="B386" s="4"/>
       <c r="C386" s="4"/>
@@ -24094,7 +24099,7 @@
       <c r="T386" s="4"/>
       <c r="U386" s="4"/>
     </row>
-    <row r="387" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:21">
       <c r="A387" s="4"/>
       <c r="B387" s="4"/>
       <c r="C387" s="4"/>
@@ -24117,7 +24122,7 @@
       <c r="T387" s="4"/>
       <c r="U387" s="4"/>
     </row>
-    <row r="388" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:21">
       <c r="A388" s="4"/>
       <c r="B388" s="4"/>
       <c r="C388" s="4"/>
@@ -24140,7 +24145,7 @@
       <c r="T388" s="4"/>
       <c r="U388" s="4"/>
     </row>
-    <row r="389" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:21">
       <c r="A389" s="4"/>
       <c r="B389" s="4"/>
       <c r="C389" s="4"/>
@@ -24163,7 +24168,7 @@
       <c r="T389" s="4"/>
       <c r="U389" s="4"/>
     </row>
-    <row r="390" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:21">
       <c r="A390" s="4"/>
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
@@ -24186,7 +24191,7 @@
       <c r="T390" s="4"/>
       <c r="U390" s="4"/>
     </row>
-    <row r="391" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:21">
       <c r="A391" s="4"/>
       <c r="B391" s="4"/>
       <c r="C391" s="4"/>
@@ -24209,7 +24214,7 @@
       <c r="T391" s="4"/>
       <c r="U391" s="4"/>
     </row>
-    <row r="392" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:21">
       <c r="A392" s="4"/>
       <c r="B392" s="4"/>
       <c r="C392" s="4"/>
@@ -24232,7 +24237,7 @@
       <c r="T392" s="4"/>
       <c r="U392" s="4"/>
     </row>
-    <row r="393" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:21">
       <c r="A393" s="4"/>
       <c r="B393" s="4"/>
       <c r="C393" s="4"/>
@@ -24255,7 +24260,7 @@
       <c r="T393" s="4"/>
       <c r="U393" s="4"/>
     </row>
-    <row r="394" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:21">
       <c r="A394" s="4"/>
       <c r="B394" s="4"/>
       <c r="C394" s="4"/>
@@ -24278,7 +24283,7 @@
       <c r="T394" s="4"/>
       <c r="U394" s="4"/>
     </row>
-    <row r="395" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:21">
       <c r="A395" s="4"/>
       <c r="B395" s="4"/>
       <c r="C395" s="4"/>
@@ -24301,7 +24306,7 @@
       <c r="T395" s="4"/>
       <c r="U395" s="4"/>
     </row>
-    <row r="396" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:21">
       <c r="A396" s="4"/>
       <c r="B396" s="4"/>
       <c r="C396" s="4"/>
@@ -24324,7 +24329,7 @@
       <c r="T396" s="4"/>
       <c r="U396" s="4"/>
     </row>
-    <row r="397" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:21">
       <c r="A397" s="4"/>
       <c r="B397" s="4"/>
       <c r="C397" s="4"/>
@@ -24347,7 +24352,7 @@
       <c r="T397" s="4"/>
       <c r="U397" s="4"/>
     </row>
-    <row r="398" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:21">
       <c r="A398" s="4"/>
       <c r="B398" s="4"/>
       <c r="C398" s="4"/>
@@ -24370,7 +24375,7 @@
       <c r="T398" s="4"/>
       <c r="U398" s="4"/>
     </row>
-    <row r="399" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:21">
       <c r="A399" s="4"/>
       <c r="B399" s="4"/>
       <c r="C399" s="4"/>
@@ -24393,7 +24398,7 @@
       <c r="T399" s="4"/>
       <c r="U399" s="4"/>
     </row>
-    <row r="400" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:21">
       <c r="A400" s="4"/>
       <c r="B400" s="4"/>
       <c r="C400" s="4"/>
@@ -24416,7 +24421,7 @@
       <c r="T400" s="4"/>
       <c r="U400" s="4"/>
     </row>
-    <row r="401" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:21">
       <c r="A401" s="4"/>
       <c r="B401" s="4"/>
       <c r="C401" s="4"/>
@@ -24439,7 +24444,7 @@
       <c r="T401" s="4"/>
       <c r="U401" s="4"/>
     </row>
-    <row r="402" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:21">
       <c r="A402" s="4"/>
       <c r="B402" s="4"/>
       <c r="C402" s="4"/>
@@ -24462,7 +24467,7 @@
       <c r="T402" s="4"/>
       <c r="U402" s="4"/>
     </row>
-    <row r="403" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:21">
       <c r="A403" s="4"/>
       <c r="B403" s="4"/>
       <c r="C403" s="4"/>
@@ -24485,7 +24490,7 @@
       <c r="T403" s="4"/>
       <c r="U403" s="4"/>
     </row>
-    <row r="404" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:21">
       <c r="A404" s="4"/>
       <c r="B404" s="4"/>
       <c r="C404" s="4"/>
@@ -24508,7 +24513,7 @@
       <c r="T404" s="4"/>
       <c r="U404" s="4"/>
     </row>
-    <row r="405" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:21">
       <c r="A405" s="4"/>
       <c r="B405" s="4"/>
       <c r="C405" s="4"/>
@@ -24531,7 +24536,7 @@
       <c r="T405" s="4"/>
       <c r="U405" s="4"/>
     </row>
-    <row r="406" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:21">
       <c r="A406" s="4"/>
       <c r="B406" s="4"/>
       <c r="C406" s="4"/>
@@ -24554,7 +24559,7 @@
       <c r="T406" s="4"/>
       <c r="U406" s="4"/>
     </row>
-    <row r="407" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:21">
       <c r="A407" s="4"/>
       <c r="B407" s="4"/>
       <c r="C407" s="4"/>
@@ -24577,7 +24582,7 @@
       <c r="T407" s="4"/>
       <c r="U407" s="4"/>
     </row>
-    <row r="408" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:21">
       <c r="A408" s="4"/>
       <c r="B408" s="4"/>
       <c r="C408" s="4"/>
@@ -24600,7 +24605,7 @@
       <c r="T408" s="4"/>
       <c r="U408" s="4"/>
     </row>
-    <row r="409" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:21">
       <c r="A409" s="4"/>
       <c r="B409" s="4"/>
       <c r="C409" s="4"/>
@@ -24623,7 +24628,7 @@
       <c r="T409" s="4"/>
       <c r="U409" s="4"/>
     </row>
-    <row r="410" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:21">
       <c r="A410" s="4"/>
       <c r="B410" s="4"/>
       <c r="C410" s="4"/>
@@ -24646,7 +24651,7 @@
       <c r="T410" s="4"/>
       <c r="U410" s="4"/>
     </row>
-    <row r="411" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:21">
       <c r="A411" s="4"/>
       <c r="B411" s="4"/>
       <c r="C411" s="4"/>
@@ -24669,7 +24674,7 @@
       <c r="T411" s="4"/>
       <c r="U411" s="4"/>
     </row>
-    <row r="412" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:21">
       <c r="A412" s="4"/>
       <c r="B412" s="4"/>
       <c r="C412" s="4"/>
@@ -24692,7 +24697,7 @@
       <c r="T412" s="4"/>
       <c r="U412" s="4"/>
     </row>
-    <row r="413" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:21">
       <c r="A413" s="4"/>
       <c r="B413" s="4"/>
       <c r="C413" s="4"/>
@@ -24715,7 +24720,7 @@
       <c r="T413" s="4"/>
       <c r="U413" s="4"/>
     </row>
-    <row r="414" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:21">
       <c r="A414" s="4"/>
       <c r="B414" s="4"/>
       <c r="C414" s="4"/>
@@ -24738,7 +24743,7 @@
       <c r="T414" s="4"/>
       <c r="U414" s="4"/>
     </row>
-    <row r="415" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:21">
       <c r="A415" s="4"/>
       <c r="B415" s="4"/>
       <c r="C415" s="4"/>
@@ -24761,7 +24766,7 @@
       <c r="T415" s="4"/>
       <c r="U415" s="4"/>
     </row>
-    <row r="416" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:21">
       <c r="A416" s="4"/>
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
@@ -24784,7 +24789,7 @@
       <c r="T416" s="4"/>
       <c r="U416" s="4"/>
     </row>
-    <row r="417" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:21">
       <c r="A417" s="4"/>
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
@@ -24901,7 +24906,7 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="3.375" style="10" customWidth="1"/>
     <col min="2" max="2" width="10.875" style="10"/>
@@ -24911,9 +24916,9 @@
     <col min="7" max="7" width="3.375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="10" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" s="10" customFormat="1" ht="42" customHeight="1" thickBot="1">
       <c r="B1" s="35" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -24940,93 +24945,93 @@
       <c r="AF1" s="9"/>
       <c r="AG1" s="9"/>
     </row>
-    <row r="2" spans="1:33" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="24.95" customHeight="1" thickTop="1">
       <c r="A2" s="9"/>
       <c r="B2" s="34" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="34" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="34" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:33" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" ht="35.1" customHeight="1">
       <c r="A3" s="9"/>
       <c r="B3" s="33" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="32" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="16" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:33" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" ht="35.1" customHeight="1">
       <c r="A4" s="9"/>
       <c r="B4" s="31" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="30" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="17" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:33" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" ht="35.1" customHeight="1">
       <c r="A5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="29" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="17" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:33" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" ht="35.1" customHeight="1">
       <c r="A6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="25"/>
       <c r="E6" s="9"/>
       <c r="F6" s="28" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:33" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" ht="35.1" customHeight="1">
       <c r="A7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="25"/>
       <c r="E7" s="9"/>
       <c r="F7" s="27" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:33" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" ht="35.1" customHeight="1">
       <c r="A8" s="9"/>
       <c r="C8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="19" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:33" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" ht="35.1" customHeight="1">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -25036,7 +25041,7 @@
       </c>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:33" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" ht="35.1" customHeight="1">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -25045,7 +25050,7 @@
       <c r="F10" s="18"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:33" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" ht="35.1" customHeight="1">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -25054,7 +25059,7 @@
       <c r="F11" s="18"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:33" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -25063,7 +25068,7 @@
       <c r="F12" s="25"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:33" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -25072,7 +25077,7 @@
       <c r="F13" s="25"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:33" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -25081,7 +25086,7 @@
       <c r="F14" s="25"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:33" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -25090,7 +25095,7 @@
       <c r="F15" s="25"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:33" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -25099,7 +25104,7 @@
       <c r="F16" s="25"/>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="16.5">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -25107,7 +25112,7 @@
       <c r="E17" s="9"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="16.5">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -25115,7 +25120,7 @@
       <c r="E18" s="9"/>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="16.5">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -25123,7 +25128,7 @@
       <c r="E19" s="9"/>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="16.5">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -25131,7 +25136,7 @@
       <c r="E20" s="9"/>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="16.5">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -25139,7 +25144,7 @@
       <c r="E21" s="9"/>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="16.5">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -25147,7 +25152,7 @@
       <c r="E22" s="9"/>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="16.5">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -25155,7 +25160,7 @@
       <c r="E23" s="9"/>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="16.5">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -25163,7 +25168,7 @@
       <c r="E24" s="9"/>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="16.5">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -25171,7 +25176,7 @@
       <c r="E25" s="9"/>
       <c r="G25" s="9"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="16.5">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -25179,7 +25184,7 @@
       <c r="E26" s="9"/>
       <c r="G26" s="9"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="16.5">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -25187,7 +25192,7 @@
       <c r="E27" s="9"/>
       <c r="G27" s="9"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="16.5">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -25195,7 +25200,7 @@
       <c r="E28" s="9"/>
       <c r="G28" s="9"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="16.5">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -25203,7 +25208,7 @@
       <c r="E29" s="9"/>
       <c r="G29" s="9"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="16.5">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -25211,7 +25216,7 @@
       <c r="E30" s="9"/>
       <c r="G30" s="9"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="16.5">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -25219,7 +25224,7 @@
       <c r="E31" s="9"/>
       <c r="G31" s="9"/>
     </row>
-    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="16.5">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -25227,203 +25232,203 @@
       <c r="E32"/>
       <c r="G32"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="E33" s="9"/>
       <c r="G33" s="9"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="E34" s="9"/>
       <c r="G34" s="9"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="E35" s="9"/>
       <c r="G35" s="9"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="E36" s="9"/>
       <c r="G36" s="9"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="E37" s="9"/>
       <c r="G37" s="9"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="E38" s="9"/>
       <c r="G38" s="9"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="E39" s="9"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="E40" s="9"/>
       <c r="G40" s="9"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="E41" s="9"/>
       <c r="G41" s="9"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="E42" s="9"/>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="E43" s="9"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
       <c r="E44" s="9"/>
       <c r="G44" s="9"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="E45" s="9"/>
       <c r="G45" s="9"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="E46" s="9"/>
       <c r="G46" s="9"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
       <c r="E47" s="9"/>
       <c r="G47" s="9"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
       <c r="E48" s="9"/>
       <c r="G48" s="9"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="E49" s="9"/>
       <c r="G49" s="9"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="E50" s="9"/>
       <c r="G50" s="9"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
       <c r="E51" s="9"/>
       <c r="G51" s="9"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
       <c r="E52" s="9"/>
       <c r="G52" s="9"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
       <c r="E53" s="9"/>
       <c r="G53" s="9"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
       <c r="E54" s="9"/>
       <c r="G54" s="9"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="E55" s="9"/>
       <c r="G55" s="9"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
       <c r="E56" s="9"/>
       <c r="G56" s="9"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
       <c r="E57" s="9"/>
       <c r="G57" s="9"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="E58" s="9"/>
       <c r="G58" s="9"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
       <c r="E59" s="9"/>
       <c r="G59" s="9"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="E60" s="9"/>
       <c r="G60" s="9"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
